--- a/Excel/Metamask/phrase.xlsx
+++ b/Excel/Metamask/phrase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>Word1</t>
   </si>
@@ -134,6 +134,345 @@
   </si>
   <si>
     <t>0x49D774A711B06e926d4210ee52dE32310a84ef78</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>0x79863232EB087B02040D6AcA2F8CA483bEF02d0C</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>pelican</t>
+  </si>
+  <si>
+    <t>atom</t>
+  </si>
+  <si>
+    <t>dawn</t>
+  </si>
+  <si>
+    <t>enrich</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>tackle</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>basket</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>0x310b1dE8F19614F158e7a0f1791B1C9A7E8fEc28</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>peasant</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>toward</t>
+  </si>
+  <si>
+    <t>0x2c7f9C627210bcA32af4f9F09B0BC746138bB773</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>disorder</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>crumble</t>
+  </si>
+  <si>
+    <t>0xE17f4BFc3F76A675dCeCb72462Ca07CF8e9e311F</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>clarify</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>convince</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>0x64380C4d94a5a2fc6D7059BdfB34cA5cf20e0cA1</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>unveil</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>0xC471E9EbAa6fd3484f04752aaC5f85D1d273561C</t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>miracle</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>shy</t>
+  </si>
+  <si>
+    <t>excite</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>liar</t>
+  </si>
+  <si>
+    <t>0x4EcbAd85943600e7625423c5accbba252a80C205</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>orchard</t>
+  </si>
+  <si>
+    <t>unfold</t>
+  </si>
+  <si>
+    <t>gadget</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>uncover</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>0x424bf2a6d60897415D3C4F3d3D604b52ed2f5a9B</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>comic</t>
+  </si>
+  <si>
+    <t>barely</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>0x79b2A906538c40dF77178b1Ee195de7C0Aa0e156</t>
   </si>
 </sst>
 </file>
@@ -492,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -623,6 +962,375 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Metamask/phrase.xlsx
+++ b/Excel/Metamask/phrase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16445" uniqueCount="3323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18954" uniqueCount="3518">
   <si>
     <t>Word1</t>
   </si>
@@ -9989,6 +9989,591 @@
   </si>
   <si>
     <t>0x1192F25cB31d6C0128aC149249B804de54A54407</t>
+  </si>
+  <si>
+    <t>0x523139B8F3f6B70fA9bf3350fE1b281dc0114c2A</t>
+  </si>
+  <si>
+    <t>0xb2ffdfe653Ba59280d1F2039A7Ea3392D3d1e083</t>
+  </si>
+  <si>
+    <t>0x78a2b69348A040DbBe4edDf271B77010f5266Dc5</t>
+  </si>
+  <si>
+    <t>0x758240F37cb5EFBed5C404Da96843e77d577E1a8</t>
+  </si>
+  <si>
+    <t>0x051E3B9B9494a6a84066E1a43136A78866d519f6</t>
+  </si>
+  <si>
+    <t>0x5df949E1ffBfAAe449832eF78a3d0B578bd8C662</t>
+  </si>
+  <si>
+    <t>0xD058532C1b8CB8ED3b607E5755609d5df5ba4E0d</t>
+  </si>
+  <si>
+    <t>0x8BCA6A07e85a4D9A7A125F95E4d7E06BA6e57DbC</t>
+  </si>
+  <si>
+    <t>0xAbA529653C5e94b1be4aF6259cC52002BF4f9cA5</t>
+  </si>
+  <si>
+    <t>0xc76b752ec4FaB58Ec5637Ec2B2Cf56AcB15F6f84</t>
+  </si>
+  <si>
+    <t>0xB7C08aB8F30C4329eDB3bEe6C5efBA957d8A626A</t>
+  </si>
+  <si>
+    <t>0xb9e5a5B8e4bBfcaaeB9885b2309fbAE3A8365F80</t>
+  </si>
+  <si>
+    <t>0x6aAA275f817e1c9845fc09051b3209820Fa09c63</t>
+  </si>
+  <si>
+    <t>0x5990a3dDE50055da626EA61b5b1815849B86061b</t>
+  </si>
+  <si>
+    <t>0x013D90DfC20b4704812F2672e337f3f26115e0AA</t>
+  </si>
+  <si>
+    <t>0xBa6215467A46E14EbF0Eb255AF10Bc04dc2a6Bcc</t>
+  </si>
+  <si>
+    <t>0x52ccc7118690987Bd924465B02FC59947729CAa8</t>
+  </si>
+  <si>
+    <t>0x1c7BB98616c03966739dA34376Ae807Bbd1FC51C</t>
+  </si>
+  <si>
+    <t>0x0b8002bDc405f1Fb04f9e846B1eA9fB83f9E736c</t>
+  </si>
+  <si>
+    <t>0x8B6a165f20Cd9292dBA1F6905F1362d4DE7675c1</t>
+  </si>
+  <si>
+    <t>0x20402eB356311A6A33b2eFb183A07fb37283F8F0</t>
+  </si>
+  <si>
+    <t>0x9a68D462138D3FD8a5562Aa79B6DF013B149Fa4B</t>
+  </si>
+  <si>
+    <t>0x5AC3E4250Fa8bCf21F54586B497aF5A69fC5D5c4</t>
+  </si>
+  <si>
+    <t>0xd39Ea420B016186C9374370080e603117a3A2212</t>
+  </si>
+  <si>
+    <t>0x6b51676FBcAa2EbF1FBE652c0b0f2E84Acd4798e</t>
+  </si>
+  <si>
+    <t>0x7c627bEEb9FB258025Ea4ef4d35c2B9c3B525246</t>
+  </si>
+  <si>
+    <t>0x2Ff5C1dc492eb2DA165B4BB0658327C9ad70075C</t>
+  </si>
+  <si>
+    <t>0xbded3eE850f52231c9165614EccBCf1A32a0a71e</t>
+  </si>
+  <si>
+    <t>0x57D55590a29FcE75CB78973EDF270BB8B6a54333</t>
+  </si>
+  <si>
+    <t>0xa14Df41A264CAC259Af5Bc7b568225A851B3d221</t>
+  </si>
+  <si>
+    <t>0x585BbAd3d59324232302dD45fAc7EcF7fedA1595</t>
+  </si>
+  <si>
+    <t>0x7A14dd0dACB7a00ee5D7282951A56fAc2D64111e</t>
+  </si>
+  <si>
+    <t>0x9Cb08Ed485FDcfA30c6EaeaD2F2ed56051ae0C3E</t>
+  </si>
+  <si>
+    <t>0x477B3b28bF7293ad7Af1ABB71f37a76DA6073F88</t>
+  </si>
+  <si>
+    <t>0x54D56FE4E257d6F516BCB4B8Dd9E3e0FcD0Ba04E</t>
+  </si>
+  <si>
+    <t>0x06aDB0FfA1933A4Ce90D9fE032f44771b677fD0e</t>
+  </si>
+  <si>
+    <t>0xf8c87695B89c3D6dd107b4e44f52a86A77684147</t>
+  </si>
+  <si>
+    <t>0x8B2B206D88247580AF7dAA2ea8904b3E975BE796</t>
+  </si>
+  <si>
+    <t>0x27592d771cd8241a01dD9Eb2f3c43406B95A631A</t>
+  </si>
+  <si>
+    <t>0xbF642a151DeAf42B9b5C8E25480a5909Caf15C38</t>
+  </si>
+  <si>
+    <t>0x3E9d9642A2940BF52452b4d856049D42F7809BC9</t>
+  </si>
+  <si>
+    <t>0x7693BBf66954bc5564bAF4fAB3B2D41741298BF5</t>
+  </si>
+  <si>
+    <t>0x9ac20813C3c83068AF55e8148F2Ebb9aAE004049</t>
+  </si>
+  <si>
+    <t>0x7CF9B18250d8f5c9cc4B732693CFd3426d0d415E</t>
+  </si>
+  <si>
+    <t>0x33F8A9B8832aB6626ed8bA23298DD84bd3336E34</t>
+  </si>
+  <si>
+    <t>0x6675DBE5c18dC08Ed05349c0A96E2AD8DE4A8dF6</t>
+  </si>
+  <si>
+    <t>0x5d21d3627E743fA51E62F227C3B9eE94E409e75A</t>
+  </si>
+  <si>
+    <t>0x0F3b0fCF29D2F9f906607109A97a93Af22eF0ae8</t>
+  </si>
+  <si>
+    <t>0xc80f1FdDeAd6A688186dDb6731F3547503b9Ae83</t>
+  </si>
+  <si>
+    <t>0xD553faC2826B3CA93853C0B843DE118351104a6f</t>
+  </si>
+  <si>
+    <t>0xa4C46b5e2Ab14aFDf29f4BD6884C4b2dc063c71F</t>
+  </si>
+  <si>
+    <t>0x1216DeDF70421c1c6EF5A8D9740ed699AaB6bdd3</t>
+  </si>
+  <si>
+    <t>0x99C5983fE3E7d7eBe7fdf33a488D182b8677A276</t>
+  </si>
+  <si>
+    <t>0xC33455C741e260F28568072Efa2EbFB92B8F88F7</t>
+  </si>
+  <si>
+    <t>0xA344dEE5F80822b23a8bB6DeCdc3d5c9b1027479</t>
+  </si>
+  <si>
+    <t>0x755E95738ad50Ae431c60eb769441a3431F03662</t>
+  </si>
+  <si>
+    <t>0x0B9DEf0aDa48844816A5fFBCc84B10c3A3B22015</t>
+  </si>
+  <si>
+    <t>0x57B7950baD3ED6E2934F0e3d50AE9E17710F2179</t>
+  </si>
+  <si>
+    <t>0xaf775DbDE2466bC3a11787411263AE4ecbB6dEaC</t>
+  </si>
+  <si>
+    <t>0x3cE8886E3043f9D9cDc3468B454C732519C45E4D</t>
+  </si>
+  <si>
+    <t>0x785E4C9905F45395E866614a3Fc9519E3c1D2b6D</t>
+  </si>
+  <si>
+    <t>0x81Acb2E4014a393BCeC13211971ef534ca74b449</t>
+  </si>
+  <si>
+    <t>0x51F2B1BafD615675667bae37b152Ed9a697cf5cf</t>
+  </si>
+  <si>
+    <t>0x1cAD29e9cF54182aaf19b2EEdd5ab671C9B1e084</t>
+  </si>
+  <si>
+    <t>0x44335B2fef52a270C46D8046A3bAea344045a3d3</t>
+  </si>
+  <si>
+    <t>0x04F31DfE8Fa9811B95Ad88Ab315d554cb1e0923a</t>
+  </si>
+  <si>
+    <t>0xda63F354e48E17F30c984965F23c5086c3B3eE66</t>
+  </si>
+  <si>
+    <t>0xD634072a8F49b751E8f6533B7cC1D61C281225EC</t>
+  </si>
+  <si>
+    <t>0x74fa029f07be1Ae2AB7c7518a9Ea4B4bbD5b2038</t>
+  </si>
+  <si>
+    <t>0x339f33C7191229466E3f9C0036B1893a47d23b89</t>
+  </si>
+  <si>
+    <t>0xFcB8BDE99ac91D98E9F256c5E32dc6a9DbbD21b9</t>
+  </si>
+  <si>
+    <t>0x5204bf05e37f9cc110D36033C4E2707644C9AB58</t>
+  </si>
+  <si>
+    <t>0x9F0c6DE3b16Df880fc62F577dAC4e40bE472078A</t>
+  </si>
+  <si>
+    <t>0x5D6Fa2dE52756f74a597a65b98D6c85512CB47a6</t>
+  </si>
+  <si>
+    <t>0xd6B694226ceE13a6dA03639962dcB2e8C5b51D31</t>
+  </si>
+  <si>
+    <t>0x98c829fd5EE6d068aEeE83191dCcac46C52f0426</t>
+  </si>
+  <si>
+    <t>0xB37D3307Fd56608a328d00FE22F862F857f184BC</t>
+  </si>
+  <si>
+    <t>0x517f05eCdE5B37bD106Eba2092133216e8717202</t>
+  </si>
+  <si>
+    <t>0x5A4F6e4E1Bb040b61CC3BF34b3185D3E8b612e96</t>
+  </si>
+  <si>
+    <t>0x3041F094b819f27544B8Dba76BAcFF6585D2dEF7</t>
+  </si>
+  <si>
+    <t>0xB1EB31259F65430B18eaEb7464fE9aC17AbF3BB2</t>
+  </si>
+  <si>
+    <t>0x8f3c47323f2b3762fBa9b2FC8e2494027422E82d</t>
+  </si>
+  <si>
+    <t>0xeDe5B9bF7829E66bDdd93675Deda2F35a35c8219</t>
+  </si>
+  <si>
+    <t>0xCdE9A4D414E7d2018FB5E8534Ef36afE606eb0F0</t>
+  </si>
+  <si>
+    <t>0x7c3E0834085BBecC01d1886fecFf3354562C7380</t>
+  </si>
+  <si>
+    <t>0x1476f05b981a3523b27F9dC3eb734c9330B29575</t>
+  </si>
+  <si>
+    <t>0xdC9701aEA4D3EE896005B5e9dB8765Bf461502eD</t>
+  </si>
+  <si>
+    <t>0x99936BFCf9DCF2a7BDE4D7aB939b6E692E7a7D73</t>
+  </si>
+  <si>
+    <t>0x87ad02EF4bf167FEC0E6Fc1b4972d323a69BC176</t>
+  </si>
+  <si>
+    <t>0x52C73336e4258728B66F58251D3E06018524c8cA</t>
+  </si>
+  <si>
+    <t>0xB1f2a85E7D0023CE1029a5137BEC5Ab62967C3c0</t>
+  </si>
+  <si>
+    <t>0x67413a5d778574CC37D596133e592d95BcB5A306</t>
+  </si>
+  <si>
+    <t>0x0f01Bd7599AaC390549340D0E8873E6111704aD0</t>
+  </si>
+  <si>
+    <t>0xd985d0Fb0b8c3b37884B3bC01D9e682e8FA7f6Ef</t>
+  </si>
+  <si>
+    <t>0x8D090d3b2970DA61458737BBbAeD3E47227a73a8</t>
+  </si>
+  <si>
+    <t>0x90F5BbE4E5440B94BC83F053c63D4315bFcca32a</t>
+  </si>
+  <si>
+    <t>0xE8e14E9e81EF2FA07375549f76f59a530508c7D6</t>
+  </si>
+  <si>
+    <t>0xbd6DA0D66A3D23f8C501eBF07382768e2ACCf38E</t>
+  </si>
+  <si>
+    <t>0xF1343b8b4b633aA1923858C200daCcB60Fb971C3</t>
+  </si>
+  <si>
+    <t>0xFd90d483031fBE53D58bf4C24Fa445D5Ff93aa96</t>
+  </si>
+  <si>
+    <t>0x4136418214dE0e65eeEecc3026118E212752AFD9</t>
+  </si>
+  <si>
+    <t>0x13189D7E6613989526Fc4C113235A9c667fe3800</t>
+  </si>
+  <si>
+    <t>0x140Dfe689F6eE4EDb3C92eD0806F7CA9879f5E3d</t>
+  </si>
+  <si>
+    <t>0xC424a19dc3D4729858f3B628D517978e410C4923</t>
+  </si>
+  <si>
+    <t>0x601Ef468acBE226057Db32581A560f735CDD3894</t>
+  </si>
+  <si>
+    <t>0x1932Ca3A7307d9dBeb8Db08F6262b276E90dB4CF</t>
+  </si>
+  <si>
+    <t>0x2BfdEdcF4F55297B4E5C7e3F53eEc8b0F48d2F30</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>0x1901AF7Cfe7CEA09fdf4d6f69BDA1a79694589C0</t>
+  </si>
+  <si>
+    <t>0xD9f3f4B21563f50AaE816f44D6096f95Cd4f4E20</t>
+  </si>
+  <si>
+    <t>0x795847694cb4a2C9aF7C1635404B0e0802bCbd77</t>
+  </si>
+  <si>
+    <t>0x34F95622C25Aa0f0fd6fa873Fa28847e1C42700b</t>
+  </si>
+  <si>
+    <t>0x9980522d7cd989DBE65443BDcFdD4A8505d79C82</t>
+  </si>
+  <si>
+    <t>0x6F69eE42700e071a7624594b9FFD3CC137660299</t>
+  </si>
+  <si>
+    <t>0xB781536C404eC9DA44017998306A9ff5B36f86C1</t>
+  </si>
+  <si>
+    <t>0xEF8e9BEd8113c1363ccAdF099adcC166ED21Dd23</t>
+  </si>
+  <si>
+    <t>0xF8e8fE6b066B8c61A16fE465A15398a085E76C02</t>
+  </si>
+  <si>
+    <t>0x96C90fe66BBc95c03A07B4c94cB5F0Affb74a67C</t>
+  </si>
+  <si>
+    <t>0xeB991b275459bFFbA817d7A0433562CB9604F37E</t>
+  </si>
+  <si>
+    <t>0xdde21b2e38713ef0502B0470416DCD5B76821224</t>
+  </si>
+  <si>
+    <t>0xd17F479045CC5C4c277BC298D014F3b1dcB37caD</t>
+  </si>
+  <si>
+    <t>0x65f7F8186951460BA21aa87F78bf4B80D4F236ba</t>
+  </si>
+  <si>
+    <t>0x9A9C4282e4B75Bdfa096887488014C67FFf5A00A</t>
+  </si>
+  <si>
+    <t>0xdB84EE81b16C90a7ae3B33fDaC0531a1ed69c503</t>
+  </si>
+  <si>
+    <t>0x8B211Be77439eEC926432270B51208f738cad3F6</t>
+  </si>
+  <si>
+    <t>0x65587c5f71eD24245b420cf2605eb8cADd40C967</t>
+  </si>
+  <si>
+    <t>0xC9CB25AD6F65770C9c5d169D265c9038FF93fE6B</t>
+  </si>
+  <si>
+    <t>0xFB69e138ADD2a5Df0821B5d5C663F166b22937eE</t>
+  </si>
+  <si>
+    <t>0x31b29173Bf25e41273D0d42FFbe697F2127d418e</t>
+  </si>
+  <si>
+    <t>0x8B957B2ea3A29374A8CE6151089C56CEfE9178D3</t>
+  </si>
+  <si>
+    <t>0xB36FEA94c474F89C6a907eAd3BBa58A6B6F849Fb</t>
+  </si>
+  <si>
+    <t>0x17216F6408A35EC09031203a7c09BBFa974d617a</t>
+  </si>
+  <si>
+    <t>0x95AEfc4c5827395065D0f73D5a4AF82a558c0F9f</t>
+  </si>
+  <si>
+    <t>0x4970364B51011f8763BE7D86e53eb0F154DBf4dc</t>
+  </si>
+  <si>
+    <t>0xd5ABf643b21b96637D2eE7D7962e914D19922c09</t>
+  </si>
+  <si>
+    <t>0x32fe1d0eA9593298Ba6da32a444487Beb801964f</t>
+  </si>
+  <si>
+    <t>0x5f2B748599705aaaf05898e2981cB48B23072239</t>
+  </si>
+  <si>
+    <t>0x028B27D30BdfC08dCc1f07e39ade9886884e7fB5</t>
+  </si>
+  <si>
+    <t>0x7bf589719090dE4dE2bbDb8bC8b4a64eA679EF8d</t>
+  </si>
+  <si>
+    <t>0x97f263b5AF197Fd4b6615e60a8c46343C0BD9B7a</t>
+  </si>
+  <si>
+    <t>0x87179ED12B32759B63a37722Ba5257c3c4f4e6e6</t>
+  </si>
+  <si>
+    <t>0x03c4B66c331B8C0d54D04Ab0e2Ef5fd6fF620265</t>
+  </si>
+  <si>
+    <t>0x824ca50ed3DDbB650B5b80681A1F36533266533F</t>
+  </si>
+  <si>
+    <t>0x83c69764BCDe98e22b852BFb485269A6EB77909c</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>0xc9705637bf3ba7E570B7289C0C2c39F8Bb2424b6</t>
+  </si>
+  <si>
+    <t>0x0E612c861c59EaB1AF4A1a73DC41a868bAcB4293</t>
+  </si>
+  <si>
+    <t>0x665ACD899cd4B72ca277b6c099842c4340534F7C</t>
+  </si>
+  <si>
+    <t>0x4A0DAD6F9E19D0531c094AD5d9aa6F083278bb03</t>
+  </si>
+  <si>
+    <t>0xF3aBe6dC4C5a1F35d8690815Fb6C9F9C932ca2AB</t>
+  </si>
+  <si>
+    <t>0xe9FA30cF68C889a3b5c67d21830908D6Ee8e2d69</t>
+  </si>
+  <si>
+    <t>0xCA4438C9Ab9d6B5e8Dd09D1f8E2492550A57e3Ef</t>
+  </si>
+  <si>
+    <t>0x1623821b429BFD6BFBFb6d92C3aBFaAc2FAc6ba1</t>
+  </si>
+  <si>
+    <t>0xEE53a842130790812f05EAdC5d9A3CFE1d930B51</t>
+  </si>
+  <si>
+    <t>0xC868Ff5f6a0CDc158D10c1e502C72404094d68A6</t>
+  </si>
+  <si>
+    <t>0xF0512CdAaE3776f80D7224079ee6C87AD3DBC773</t>
+  </si>
+  <si>
+    <t>0x9f247F388b04d6eD58bff10C3Fac2f0A1FDDa6b9</t>
+  </si>
+  <si>
+    <t>0xC634D49D9f2ca566E48107D644093c7Ad36cb528</t>
+  </si>
+  <si>
+    <t>0x02A01654519f2Ea7A35A4531e5a6864C29e67909</t>
+  </si>
+  <si>
+    <t>0x3C4340De3bE554abF4ED4c4c80E8ED718f6FBc78</t>
+  </si>
+  <si>
+    <t>0x63F80e0d380C3c7e248aF9c00a568A36343b046d</t>
+  </si>
+  <si>
+    <t>0x85524edd96b32a043F3cD1Dd9bAF2154Ad55dF39</t>
+  </si>
+  <si>
+    <t>0xdb5468AfDF923094dFd4E0b111BDd37D3D52E1E6</t>
+  </si>
+  <si>
+    <t>0x093078f1A263d50B68AC4bCA09B6443c055C2Fb3</t>
+  </si>
+  <si>
+    <t>0xc04D6043E5ff36A4FB4DFa71a33742C3fD7F0C28</t>
+  </si>
+  <si>
+    <t>0x3Bd4b6f641640f91BF1E5Fb49162A28bD1bfD4BA</t>
+  </si>
+  <si>
+    <t>0xc465C265d94AABD846C760b738203939B2c91373</t>
+  </si>
+  <si>
+    <t>0xDdFDE4F249F7fB6e11Bb7Ad7389730c93c695b9D</t>
+  </si>
+  <si>
+    <t>0xa5E9a7f8FE77573CC692B087088F61519dcED4F6</t>
+  </si>
+  <si>
+    <t>0xbdc25D10594A9EC83e4E9dC6740ee177e67F2e15</t>
+  </si>
+  <si>
+    <t>0x77cf81bc5c404a4A9179d387402E31ED255Cb0eB</t>
+  </si>
+  <si>
+    <t>0xf06f46b73DAC702b207dBa54093996d15Df2522e</t>
+  </si>
+  <si>
+    <t>0xe7F0da8402BD404AEdFceA42375916fc230435BE</t>
+  </si>
+  <si>
+    <t>0x3FD0E594769D7b2E6281dd8BCc3D0a02cE4bc221</t>
+  </si>
+  <si>
+    <t>0xad10c8CE6D1CeC443EB02ed5CbD67bF59C44813b</t>
+  </si>
+  <si>
+    <t>0x5095A32Efc7fee3dcF1ED9CCE782a7796Ee97744</t>
+  </si>
+  <si>
+    <t>0xfAa9313934dDFDb61488927150d2B47eDFc1355C</t>
+  </si>
+  <si>
+    <t>0x0986a40dDDCa9e5dc8BF46C4e5171cE2c5AdeaCB</t>
+  </si>
+  <si>
+    <t>0x01fE1E6beD5602b3d8001892d3Ea3c51B413f206</t>
+  </si>
+  <si>
+    <t>0xA464f4800a5d1De46f0Ec027ADFa489a2d67814b</t>
+  </si>
+  <si>
+    <t>0x6F800c708487dAF8efd786a7C48A4335b721daAA</t>
+  </si>
+  <si>
+    <t>0x57Cb927C6EFF307060bA5cFEF817F0781cEd70D0</t>
+  </si>
+  <si>
+    <t>0xe785Be01041c84CaA6863f3f2cE92EfAc5447B46</t>
+  </si>
+  <si>
+    <t>0x300cCFf1Ee055142504Ad470F4b68f715E16896a</t>
+  </si>
+  <si>
+    <t>0x8a5A1f0ee0D99E5Aa89E15060995b32CCDbdb691</t>
+  </si>
+  <si>
+    <t>0x1344A513170c873bB906FD424138aa6b9914350F</t>
+  </si>
+  <si>
+    <t>0xDdDd36fE42Cc57A0C5035C8d9314948BcC45b22C</t>
+  </si>
+  <si>
+    <t>0x42Ef53dD0ca8a1c0fBa06a0387837Bd8be539303</t>
+  </si>
+  <si>
+    <t>0xC51BBbf2Ae62f5e77E11c5D15171B48540A47D27</t>
+  </si>
+  <si>
+    <t>0x9a58983C3040f2F8831A5111E1f88EC9000Ee3cA</t>
+  </si>
+  <si>
+    <t>0xF3cbbf23EAAbaa2ac95ef5242cB65f791b60ec45</t>
+  </si>
+  <si>
+    <t>0x737b1B70dA6139fC502C3dfb691dF380759171eb</t>
+  </si>
+  <si>
+    <t>0x9Dfe758E111a9F2cd882365d1944598e4c166Ed0</t>
+  </si>
+  <si>
+    <t>0x3B171942ebE284565234DCA4e3c0EfC5C3ba0aEb</t>
+  </si>
+  <si>
+    <t>0xA909d6db6AE88E0BDfb7C3BDf890278dfeF79846</t>
   </si>
 </sst>
 </file>
@@ -10347,7 +10932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1265"/>
+  <dimension ref="A1:M1458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
@@ -62223,6 +62808,7919 @@
         <v>3322</v>
       </c>
     </row>
+    <row r="1266">
+      <c r="A1266" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="B1266" t="s" s="0">
+        <v>1332</v>
+      </c>
+      <c r="C1266" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="D1266" t="s" s="0">
+        <v>2134</v>
+      </c>
+      <c r="E1266" t="s" s="0">
+        <v>1647</v>
+      </c>
+      <c r="F1266" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="G1266" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="H1266" t="s" s="0">
+        <v>2658</v>
+      </c>
+      <c r="I1266" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="J1266" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="K1266" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="L1266" t="s" s="0">
+        <v>2109</v>
+      </c>
+      <c r="M1266" t="s" s="0">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B1267" t="s" s="0">
+        <v>1821</v>
+      </c>
+      <c r="C1267" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="D1267" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="E1267" t="s" s="0">
+        <v>2466</v>
+      </c>
+      <c r="F1267" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="G1267" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="H1267" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="I1267" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="J1267" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K1267" t="s" s="0">
+        <v>2354</v>
+      </c>
+      <c r="L1267" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="M1267" t="s" s="0">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="B1268" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="C1268" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D1268" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="E1268" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="F1268" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="G1268" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="H1268" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="I1268" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J1268" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="K1268" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="L1268" t="s" s="0">
+        <v>2453</v>
+      </c>
+      <c r="M1268" t="s" s="0">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="s" s="0">
+        <v>1885</v>
+      </c>
+      <c r="B1269" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="C1269" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D1269" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="E1269" t="s" s="0">
+        <v>1617</v>
+      </c>
+      <c r="F1269" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="G1269" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="H1269" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="I1269" t="s" s="0">
+        <v>1887</v>
+      </c>
+      <c r="J1269" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="K1269" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="L1269" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M1269" t="s" s="0">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="B1270" t="s" s="0">
+        <v>2040</v>
+      </c>
+      <c r="C1270" t="s" s="0">
+        <v>2570</v>
+      </c>
+      <c r="D1270" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1270" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="F1270" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="G1270" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="H1270" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1270" t="s" s="0">
+        <v>2240</v>
+      </c>
+      <c r="J1270" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K1270" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="L1270" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="M1270" t="s" s="0">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="B1271" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="C1271" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="D1271" t="s" s="0">
+        <v>2363</v>
+      </c>
+      <c r="E1271" t="s" s="0">
+        <v>1328</v>
+      </c>
+      <c r="F1271" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="G1271" t="s" s="0">
+        <v>1947</v>
+      </c>
+      <c r="H1271" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="I1271" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="J1271" t="s" s="0">
+        <v>1282</v>
+      </c>
+      <c r="K1271" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="L1271" t="s" s="0">
+        <v>2526</v>
+      </c>
+      <c r="M1271" t="s" s="0">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="B1272" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="C1272" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="D1272" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="E1272" t="s" s="0">
+        <v>1754</v>
+      </c>
+      <c r="F1272" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="G1272" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="H1272" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="I1272" t="s" s="0">
+        <v>1607</v>
+      </c>
+      <c r="J1272" t="s" s="0">
+        <v>1754</v>
+      </c>
+      <c r="K1272" t="s" s="0">
+        <v>2333</v>
+      </c>
+      <c r="L1272" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="M1272" t="s" s="0">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="B1273" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="C1273" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="D1273" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="E1273" t="s" s="0">
+        <v>1976</v>
+      </c>
+      <c r="F1273" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="G1273" t="s" s="0">
+        <v>2080</v>
+      </c>
+      <c r="H1273" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="I1273" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="J1273" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="K1273" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="L1273" t="s" s="0">
+        <v>1274</v>
+      </c>
+      <c r="M1273" t="s" s="0">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B1274" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="C1274" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="D1274" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="E1274" t="s" s="0">
+        <v>1953</v>
+      </c>
+      <c r="F1274" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="G1274" t="s" s="0">
+        <v>1311</v>
+      </c>
+      <c r="H1274" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="I1274" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="J1274" t="s" s="0">
+        <v>1367</v>
+      </c>
+      <c r="K1274" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="L1274" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="M1274" t="s" s="0">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="B1275" t="s" s="0">
+        <v>2274</v>
+      </c>
+      <c r="C1275" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="D1275" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="E1275" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="F1275" t="s" s="0">
+        <v>1950</v>
+      </c>
+      <c r="G1275" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="H1275" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="I1275" t="s" s="0">
+        <v>1315</v>
+      </c>
+      <c r="J1275" t="s" s="0">
+        <v>2044</v>
+      </c>
+      <c r="K1275" t="s" s="0">
+        <v>2233</v>
+      </c>
+      <c r="L1275" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="M1275" t="s" s="0">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="B1276" t="s" s="0">
+        <v>2208</v>
+      </c>
+      <c r="C1276" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="D1276" t="s" s="0">
+        <v>1280</v>
+      </c>
+      <c r="E1276" t="s" s="0">
+        <v>1742</v>
+      </c>
+      <c r="F1276" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="G1276" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="H1276" t="s" s="0">
+        <v>2521</v>
+      </c>
+      <c r="I1276" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="J1276" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="K1276" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="L1276" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="M1276" t="s" s="0">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="B1277" t="s" s="0">
+        <v>2070</v>
+      </c>
+      <c r="C1277" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="D1277" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="E1277" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="F1277" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="G1277" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="H1277" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="I1277" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="J1277" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="K1277" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="L1277" t="s" s="0">
+        <v>3104</v>
+      </c>
+      <c r="M1277" t="s" s="0">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="B1278" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="C1278" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="D1278" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="E1278" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="F1278" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="G1278" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="H1278" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="I1278" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="J1278" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="K1278" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="L1278" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M1278" t="s" s="0">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B1279" t="s" s="0">
+        <v>2321</v>
+      </c>
+      <c r="C1279" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D1279" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="E1279" t="s" s="0">
+        <v>2712</v>
+      </c>
+      <c r="F1279" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="G1279" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="H1279" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="I1279" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="J1279" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="K1279" t="s" s="0">
+        <v>2854</v>
+      </c>
+      <c r="L1279" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M1279" t="s" s="0">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="B1280" t="s" s="0">
+        <v>2208</v>
+      </c>
+      <c r="C1280" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="D1280" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="E1280" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="F1280" t="s" s="0">
+        <v>1670</v>
+      </c>
+      <c r="G1280" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="H1280" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="I1280" t="s" s="0">
+        <v>1571</v>
+      </c>
+      <c r="J1280" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="K1280" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="L1280" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="M1280" t="s" s="0">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="B1281" t="s" s="0">
+        <v>1416</v>
+      </c>
+      <c r="C1281" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="D1281" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="E1281" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="F1281" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="G1281" t="s" s="0">
+        <v>2048</v>
+      </c>
+      <c r="H1281" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="I1281" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="J1281" t="s" s="0">
+        <v>2511</v>
+      </c>
+      <c r="K1281" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="L1281" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M1281" t="s" s="0">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="B1282" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="C1282" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D1282" t="s" s="0">
+        <v>1567</v>
+      </c>
+      <c r="E1282" t="s" s="0">
+        <v>1733</v>
+      </c>
+      <c r="F1282" t="s" s="0">
+        <v>1961</v>
+      </c>
+      <c r="G1282" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="H1282" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="I1282" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="J1282" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="K1282" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="L1282" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="M1282" t="s" s="0">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1283" t="s" s="0">
+        <v>2424</v>
+      </c>
+      <c r="C1283" t="s" s="0">
+        <v>2054</v>
+      </c>
+      <c r="D1283" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="E1283" t="s" s="0">
+        <v>1943</v>
+      </c>
+      <c r="F1283" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="G1283" t="s" s="0">
+        <v>1671</v>
+      </c>
+      <c r="H1283" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="I1283" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="J1283" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="K1283" t="s" s="0">
+        <v>2086</v>
+      </c>
+      <c r="L1283" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="M1283" t="s" s="0">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="s" s="0">
+        <v>1720</v>
+      </c>
+      <c r="B1284" t="s" s="0">
+        <v>2845</v>
+      </c>
+      <c r="C1284" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="D1284" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="E1284" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="F1284" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="G1284" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="H1284" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="I1284" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="J1284" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="K1284" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="L1284" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="M1284" t="s" s="0">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="B1285" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="C1285" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="D1285" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="E1285" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="F1285" t="s" s="0">
+        <v>2336</v>
+      </c>
+      <c r="G1285" t="s" s="0">
+        <v>2177</v>
+      </c>
+      <c r="H1285" t="s" s="0">
+        <v>1902</v>
+      </c>
+      <c r="I1285" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="J1285" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="K1285" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="L1285" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="M1285" t="s" s="0">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="B1286" t="s" s="0">
+        <v>2054</v>
+      </c>
+      <c r="C1286" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="D1286" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="E1286" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="F1286" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="G1286" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="H1286" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="I1286" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="J1286" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K1286" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="L1286" t="s" s="0">
+        <v>2947</v>
+      </c>
+      <c r="M1286" t="s" s="0">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="B1287" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="C1287" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="D1287" t="s" s="0">
+        <v>2116</v>
+      </c>
+      <c r="E1287" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="F1287" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="G1287" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="H1287" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="I1287" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="J1287" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="K1287" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="L1287" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="M1287" t="s" s="0">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="B1288" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="C1288" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="D1288" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="E1288" t="s" s="0">
+        <v>1113</v>
+      </c>
+      <c r="F1288" t="s" s="0">
+        <v>1980</v>
+      </c>
+      <c r="G1288" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="H1288" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1288" t="s" s="0">
+        <v>1281</v>
+      </c>
+      <c r="J1288" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K1288" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="L1288" t="s" s="0">
+        <v>2072</v>
+      </c>
+      <c r="M1288" t="s" s="0">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B1289" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="C1289" t="s" s="0">
+        <v>2287</v>
+      </c>
+      <c r="D1289" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="E1289" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="F1289" t="s" s="0">
+        <v>2709</v>
+      </c>
+      <c r="G1289" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="H1289" t="s" s="0">
+        <v>2464</v>
+      </c>
+      <c r="I1289" t="s" s="0">
+        <v>2149</v>
+      </c>
+      <c r="J1289" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="K1289" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="L1289" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="M1289" t="s" s="0">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B1290" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C1290" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="D1290" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="E1290" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="F1290" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="G1290" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="H1290" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I1290" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="J1290" t="s" s="0">
+        <v>1683</v>
+      </c>
+      <c r="K1290" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="L1290" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="M1290" t="s" s="0">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="B1291" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="C1291" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="D1291" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="E1291" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="F1291" t="s" s="0">
+        <v>2036</v>
+      </c>
+      <c r="G1291" t="s" s="0">
+        <v>1863</v>
+      </c>
+      <c r="H1291" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="I1291" t="s" s="0">
+        <v>2455</v>
+      </c>
+      <c r="J1291" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K1291" t="s" s="0">
+        <v>1615</v>
+      </c>
+      <c r="L1291" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="M1291" t="s" s="0">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="s" s="0">
+        <v>1596</v>
+      </c>
+      <c r="B1292" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="C1292" t="s" s="0">
+        <v>1511</v>
+      </c>
+      <c r="D1292" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="E1292" t="s" s="0">
+        <v>1269</v>
+      </c>
+      <c r="F1292" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G1292" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="H1292" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="I1292" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="J1292" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="K1292" t="s" s="0">
+        <v>2096</v>
+      </c>
+      <c r="L1292" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="M1292" t="s" s="0">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="B1293" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="C1293" t="s" s="0">
+        <v>2424</v>
+      </c>
+      <c r="D1293" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="E1293" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="F1293" t="s" s="0">
+        <v>1726</v>
+      </c>
+      <c r="G1293" t="s" s="0">
+        <v>2004</v>
+      </c>
+      <c r="H1293" t="s" s="0">
+        <v>2802</v>
+      </c>
+      <c r="I1293" t="s" s="0">
+        <v>1885</v>
+      </c>
+      <c r="J1293" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="K1293" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="L1293" t="s" s="0">
+        <v>2108</v>
+      </c>
+      <c r="M1293" t="s" s="0">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B1294" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C1294" t="s" s="0">
+        <v>1281</v>
+      </c>
+      <c r="D1294" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="E1294" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="F1294" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="G1294" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="H1294" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="I1294" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="J1294" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="K1294" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="L1294" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="M1294" t="s" s="0">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="s" s="0">
+        <v>1920</v>
+      </c>
+      <c r="B1295" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="C1295" t="s" s="0">
+        <v>1301</v>
+      </c>
+      <c r="D1295" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E1295" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F1295" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="G1295" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="H1295" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="I1295" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="J1295" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="K1295" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="L1295" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="M1295" t="s" s="0">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="B1296" t="s" s="0">
+        <v>2758</v>
+      </c>
+      <c r="C1296" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="D1296" t="s" s="0">
+        <v>2103</v>
+      </c>
+      <c r="E1296" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="F1296" t="s" s="0">
+        <v>2418</v>
+      </c>
+      <c r="G1296" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="H1296" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="I1296" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="J1296" t="s" s="0">
+        <v>1721</v>
+      </c>
+      <c r="K1296" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="L1296" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="M1296" t="s" s="0">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="B1297" t="s" s="0">
+        <v>1359</v>
+      </c>
+      <c r="C1297" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="D1297" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="E1297" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="F1297" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="G1297" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="H1297" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="I1297" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="J1297" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="K1297" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="L1297" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="M1297" t="s" s="0">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="B1298" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="C1298" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="D1298" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="E1298" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="F1298" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="G1298" t="s" s="0">
+        <v>2845</v>
+      </c>
+      <c r="H1298" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="I1298" t="s" s="0">
+        <v>2349</v>
+      </c>
+      <c r="J1298" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K1298" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="L1298" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="M1298" t="s" s="0">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="B1299" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="C1299" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="D1299" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="E1299" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="F1299" t="s" s="0">
+        <v>1997</v>
+      </c>
+      <c r="G1299" t="s" s="0">
+        <v>1445</v>
+      </c>
+      <c r="H1299" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="I1299" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="J1299" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="K1299" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="L1299" t="s" s="0">
+        <v>1405</v>
+      </c>
+      <c r="M1299" t="s" s="0">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="s" s="0">
+        <v>1878</v>
+      </c>
+      <c r="B1300" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="C1300" t="s" s="0">
+        <v>1657</v>
+      </c>
+      <c r="D1300" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="E1300" t="s" s="0">
+        <v>1877</v>
+      </c>
+      <c r="F1300" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="G1300" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="H1300" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="I1300" t="s" s="0">
+        <v>3092</v>
+      </c>
+      <c r="J1300" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="K1300" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="L1300" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="M1300" t="s" s="0">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B1301" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="C1301" t="s" s="0">
+        <v>1906</v>
+      </c>
+      <c r="D1301" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="E1301" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="F1301" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G1301" t="s" s="0">
+        <v>1703</v>
+      </c>
+      <c r="H1301" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="I1301" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="J1301" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="K1301" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="L1301" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="M1301" t="s" s="0">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="B1302" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="C1302" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="D1302" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="E1302" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="F1302" t="s" s="0">
+        <v>2658</v>
+      </c>
+      <c r="G1302" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="H1302" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="I1302" t="s" s="0">
+        <v>1702</v>
+      </c>
+      <c r="J1302" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="K1302" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="L1302" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="M1302" t="s" s="0">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="B1303" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C1303" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="D1303" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="E1303" t="s" s="0">
+        <v>2169</v>
+      </c>
+      <c r="F1303" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="G1303" t="s" s="0">
+        <v>2492</v>
+      </c>
+      <c r="H1303" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="I1303" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="J1303" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="K1303" t="s" s="0">
+        <v>1866</v>
+      </c>
+      <c r="L1303" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="M1303" t="s" s="0">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B1304" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="C1304" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D1304" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="E1304" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="F1304" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="G1304" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="H1304" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="I1304" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="J1304" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="K1304" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="L1304" t="s" s="0">
+        <v>1922</v>
+      </c>
+      <c r="M1304" t="s" s="0">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="B1305" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="C1305" t="s" s="0">
+        <v>2690</v>
+      </c>
+      <c r="D1305" t="s" s="0">
+        <v>2067</v>
+      </c>
+      <c r="E1305" t="s" s="0">
+        <v>1119</v>
+      </c>
+      <c r="F1305" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="G1305" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="H1305" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="I1305" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="J1305" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="K1305" t="s" s="0">
+        <v>2605</v>
+      </c>
+      <c r="L1305" t="s" s="0">
+        <v>2392</v>
+      </c>
+      <c r="M1305" t="s" s="0">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="B1306" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="C1306" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="D1306" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E1306" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="F1306" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G1306" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="H1306" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="I1306" t="s" s="0">
+        <v>1683</v>
+      </c>
+      <c r="J1306" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="K1306" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="L1306" t="s" s="0">
+        <v>1054</v>
+      </c>
+      <c r="M1306" t="s" s="0">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="B1307" t="s" s="0">
+        <v>2183</v>
+      </c>
+      <c r="C1307" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="D1307" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E1307" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="F1307" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="G1307" t="s" s="0">
+        <v>2347</v>
+      </c>
+      <c r="H1307" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="I1307" t="s" s="0">
+        <v>2013</v>
+      </c>
+      <c r="J1307" t="s" s="0">
+        <v>1009</v>
+      </c>
+      <c r="K1307" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="L1307" t="s" s="0">
+        <v>2198</v>
+      </c>
+      <c r="M1307" t="s" s="0">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="s" s="0">
+        <v>1632</v>
+      </c>
+      <c r="B1308" t="s" s="0">
+        <v>1171</v>
+      </c>
+      <c r="C1308" t="s" s="0">
+        <v>2387</v>
+      </c>
+      <c r="D1308" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="E1308" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="F1308" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="G1308" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1308" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="I1308" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="J1308" t="s" s="0">
+        <v>2854</v>
+      </c>
+      <c r="K1308" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="L1308" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="M1308" t="s" s="0">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s" s="0">
+        <v>2198</v>
+      </c>
+      <c r="B1309" t="s" s="0">
+        <v>1396</v>
+      </c>
+      <c r="C1309" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="D1309" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="E1309" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="F1309" t="s" s="0">
+        <v>2154</v>
+      </c>
+      <c r="G1309" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="H1309" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="I1309" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="J1309" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="K1309" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="L1309" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="M1309" t="s" s="0">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="B1310" t="s" s="0">
+        <v>1810</v>
+      </c>
+      <c r="C1310" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="D1310" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="E1310" t="s" s="0">
+        <v>2446</v>
+      </c>
+      <c r="F1310" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="G1310" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H1310" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="I1310" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="J1310" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="K1310" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="L1310" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M1310" t="s" s="0">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="B1311" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="C1311" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="D1311" t="s" s="0">
+        <v>2351</v>
+      </c>
+      <c r="E1311" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="F1311" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="G1311" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="H1311" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="I1311" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="J1311" t="s" s="0">
+        <v>1717</v>
+      </c>
+      <c r="K1311" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="L1311" t="s" s="0">
+        <v>2570</v>
+      </c>
+      <c r="M1311" t="s" s="0">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="s" s="0">
+        <v>1734</v>
+      </c>
+      <c r="B1312" t="s" s="0">
+        <v>2033</v>
+      </c>
+      <c r="C1312" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="D1312" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E1312" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="F1312" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="G1312" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="H1312" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I1312" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="J1312" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K1312" t="s" s="0">
+        <v>1665</v>
+      </c>
+      <c r="L1312" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="M1312" t="s" s="0">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B1313" t="s" s="0">
+        <v>1279</v>
+      </c>
+      <c r="C1313" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D1313" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="E1313" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="F1313" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="G1313" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="H1313" t="s" s="0">
+        <v>2207</v>
+      </c>
+      <c r="I1313" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J1313" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="K1313" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="L1313" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="M1313" t="s" s="0">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="s" s="0">
+        <v>1237</v>
+      </c>
+      <c r="B1314" t="s" s="0">
+        <v>2262</v>
+      </c>
+      <c r="C1314" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="D1314" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="E1314" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="F1314" t="s" s="0">
+        <v>2015</v>
+      </c>
+      <c r="G1314" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H1314" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="I1314" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="J1314" t="s" s="0">
+        <v>1023</v>
+      </c>
+      <c r="K1314" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="L1314" t="s" s="0">
+        <v>2619</v>
+      </c>
+      <c r="M1314" t="s" s="0">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="s" s="0">
+        <v>1457</v>
+      </c>
+      <c r="B1315" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="C1315" t="s" s="0">
+        <v>1361</v>
+      </c>
+      <c r="D1315" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="E1315" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="F1315" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="G1315" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="H1315" t="s" s="0">
+        <v>2622</v>
+      </c>
+      <c r="I1315" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="J1315" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K1315" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="L1315" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="M1315" t="s" s="0">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="B1316" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="C1316" t="s" s="0">
+        <v>2227</v>
+      </c>
+      <c r="D1316" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E1316" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="F1316" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="G1316" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H1316" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I1316" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="J1316" t="s" s="0">
+        <v>2316</v>
+      </c>
+      <c r="K1316" t="s" s="0">
+        <v>2282</v>
+      </c>
+      <c r="L1316" t="s" s="0">
+        <v>1662</v>
+      </c>
+      <c r="M1316" t="s" s="0">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="B1317" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="C1317" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="D1317" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="E1317" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="F1317" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="G1317" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="H1317" t="s" s="0">
+        <v>1784</v>
+      </c>
+      <c r="I1317" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="J1317" t="s" s="0">
+        <v>1992</v>
+      </c>
+      <c r="K1317" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="L1317" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="M1317" t="s" s="0">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="B1318" t="s" s="0">
+        <v>2172</v>
+      </c>
+      <c r="C1318" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="D1318" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="E1318" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="F1318" t="s" s="0">
+        <v>2060</v>
+      </c>
+      <c r="G1318" t="s" s="0">
+        <v>2038</v>
+      </c>
+      <c r="H1318" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="I1318" t="s" s="0">
+        <v>1588</v>
+      </c>
+      <c r="J1318" t="s" s="0">
+        <v>1211</v>
+      </c>
+      <c r="K1318" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="L1318" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M1318" t="s" s="0">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="B1319" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="C1319" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="D1319" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E1319" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="F1319" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="G1319" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="H1319" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="I1319" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="J1319" t="s" s="0">
+        <v>2809</v>
+      </c>
+      <c r="K1319" t="s" s="0">
+        <v>2749</v>
+      </c>
+      <c r="L1319" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="M1319" t="s" s="0">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="s" s="0">
+        <v>1596</v>
+      </c>
+      <c r="B1320" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="C1320" t="s" s="0">
+        <v>2210</v>
+      </c>
+      <c r="D1320" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="E1320" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="F1320" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="G1320" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="H1320" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I1320" t="s" s="0">
+        <v>2736</v>
+      </c>
+      <c r="J1320" t="s" s="0">
+        <v>2651</v>
+      </c>
+      <c r="K1320" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="L1320" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="M1320" t="s" s="0">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="B1321" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="C1321" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="D1321" t="s" s="0">
+        <v>1610</v>
+      </c>
+      <c r="E1321" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="F1321" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="G1321" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="H1321" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="I1321" t="s" s="0">
+        <v>2050</v>
+      </c>
+      <c r="J1321" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="K1321" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="L1321" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="M1321" t="s" s="0">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="B1322" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C1322" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D1322" t="s" s="0">
+        <v>2214</v>
+      </c>
+      <c r="E1322" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="F1322" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="G1322" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="H1322" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="I1322" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J1322" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K1322" t="s" s="0">
+        <v>2321</v>
+      </c>
+      <c r="L1322" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="M1322" t="s" s="0">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="B1323" t="s" s="0">
+        <v>1718</v>
+      </c>
+      <c r="C1323" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="D1323" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="E1323" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="F1323" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="G1323" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="H1323" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="I1323" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="J1323" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="K1323" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="L1323" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="M1323" t="s" s="0">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="B1324" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="C1324" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D1324" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="E1324" t="s" s="0">
+        <v>1871</v>
+      </c>
+      <c r="F1324" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="G1324" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="H1324" t="s" s="0">
+        <v>2215</v>
+      </c>
+      <c r="I1324" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="J1324" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="K1324" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="L1324" t="s" s="0">
+        <v>2622</v>
+      </c>
+      <c r="M1324" t="s" s="0">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="B1325" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="C1325" t="s" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D1325" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E1325" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="F1325" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="G1325" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="H1325" t="s" s="0">
+        <v>1328</v>
+      </c>
+      <c r="I1325" t="s" s="0">
+        <v>2427</v>
+      </c>
+      <c r="J1325" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="K1325" t="s" s="0">
+        <v>2072</v>
+      </c>
+      <c r="L1325" t="s" s="0">
+        <v>2142</v>
+      </c>
+      <c r="M1325" t="s" s="0">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="B1326" t="s" s="0">
+        <v>2287</v>
+      </c>
+      <c r="C1326" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D1326" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="E1326" t="s" s="0">
+        <v>2221</v>
+      </c>
+      <c r="F1326" t="s" s="0">
+        <v>2749</v>
+      </c>
+      <c r="G1326" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="H1326" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="I1326" t="s" s="0">
+        <v>1550</v>
+      </c>
+      <c r="J1326" t="s" s="0">
+        <v>2516</v>
+      </c>
+      <c r="K1326" t="s" s="0">
+        <v>2269</v>
+      </c>
+      <c r="L1326" t="s" s="0">
+        <v>2181</v>
+      </c>
+      <c r="M1326" t="s" s="0">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="s" s="0">
+        <v>2285</v>
+      </c>
+      <c r="B1327" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="C1327" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="D1327" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="E1327" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="F1327" t="s" s="0">
+        <v>2147</v>
+      </c>
+      <c r="G1327" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="H1327" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="I1327" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="J1327" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="K1327" t="s" s="0">
+        <v>1954</v>
+      </c>
+      <c r="L1327" t="s" s="0">
+        <v>1451</v>
+      </c>
+      <c r="M1327" t="s" s="0">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="s" s="0">
+        <v>1709</v>
+      </c>
+      <c r="B1328" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="C1328" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="D1328" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="E1328" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="F1328" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="G1328" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="H1328" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="I1328" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="J1328" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="K1328" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="L1328" t="s" s="0">
+        <v>1344</v>
+      </c>
+      <c r="M1328" t="s" s="0">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="s" s="0">
+        <v>2422</v>
+      </c>
+      <c r="B1329" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="C1329" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="D1329" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="E1329" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="F1329" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="G1329" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="H1329" t="s" s="0">
+        <v>2885</v>
+      </c>
+      <c r="I1329" t="s" s="0">
+        <v>2558</v>
+      </c>
+      <c r="J1329" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="K1329" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="L1329" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="M1329" t="s" s="0">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="B1330" t="s" s="0">
+        <v>1674</v>
+      </c>
+      <c r="C1330" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D1330" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="E1330" t="s" s="0">
+        <v>2188</v>
+      </c>
+      <c r="F1330" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="G1330" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="H1330" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="I1330" t="s" s="0">
+        <v>2516</v>
+      </c>
+      <c r="J1330" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="K1330" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="L1330" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="M1330" t="s" s="0">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B1331" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="C1331" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="D1331" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E1331" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="F1331" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="G1331" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="H1331" t="s" s="0">
+        <v>2052</v>
+      </c>
+      <c r="I1331" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="J1331" t="s" s="0">
+        <v>1747</v>
+      </c>
+      <c r="K1331" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="L1331" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="M1331" t="s" s="0">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="B1332" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="C1332" t="s" s="0">
+        <v>1294</v>
+      </c>
+      <c r="D1332" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="E1332" t="s" s="0">
+        <v>1550</v>
+      </c>
+      <c r="F1332" t="s" s="0">
+        <v>2059</v>
+      </c>
+      <c r="G1332" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="H1332" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="I1332" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J1332" t="s" s="0">
+        <v>2394</v>
+      </c>
+      <c r="K1332" t="s" s="0">
+        <v>1872</v>
+      </c>
+      <c r="L1332" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="M1332" t="s" s="0">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B1333" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="C1333" t="s" s="0">
+        <v>2145</v>
+      </c>
+      <c r="D1333" t="s" s="0">
+        <v>2725</v>
+      </c>
+      <c r="E1333" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="F1333" t="s" s="0">
+        <v>2619</v>
+      </c>
+      <c r="G1333" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="H1333" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="I1333" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J1333" t="s" s="0">
+        <v>2854</v>
+      </c>
+      <c r="K1333" t="s" s="0">
+        <v>1957</v>
+      </c>
+      <c r="L1333" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="M1333" t="s" s="0">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="s" s="0">
+        <v>1366</v>
+      </c>
+      <c r="B1334" t="s" s="0">
+        <v>2345</v>
+      </c>
+      <c r="C1334" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D1334" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="E1334" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F1334" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G1334" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="H1334" t="s" s="0">
+        <v>1270</v>
+      </c>
+      <c r="I1334" t="s" s="0">
+        <v>1667</v>
+      </c>
+      <c r="J1334" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="K1334" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="L1334" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="M1334" t="s" s="0">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B1335" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="C1335" t="s" s="0">
+        <v>1440</v>
+      </c>
+      <c r="D1335" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="E1335" t="s" s="0">
+        <v>2202</v>
+      </c>
+      <c r="F1335" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="G1335" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="H1335" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="I1335" t="s" s="0">
+        <v>2308</v>
+      </c>
+      <c r="J1335" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="K1335" t="s" s="0">
+        <v>2374</v>
+      </c>
+      <c r="L1335" t="s" s="0">
+        <v>1905</v>
+      </c>
+      <c r="M1335" t="s" s="0">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="B1336" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="C1336" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="D1336" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="E1336" t="s" s="0">
+        <v>1727</v>
+      </c>
+      <c r="F1336" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="G1336" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H1336" t="s" s="0">
+        <v>2012</v>
+      </c>
+      <c r="I1336" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="J1336" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="K1336" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="L1336" t="s" s="0">
+        <v>2172</v>
+      </c>
+      <c r="M1336" t="s" s="0">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="B1337" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="C1337" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="D1337" t="s" s="0">
+        <v>2182</v>
+      </c>
+      <c r="E1337" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="F1337" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G1337" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H1337" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="I1337" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="J1337" t="s" s="0">
+        <v>1930</v>
+      </c>
+      <c r="K1337" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="L1337" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="M1337" t="s" s="0">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="B1338" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="C1338" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="D1338" t="s" s="0">
+        <v>2638</v>
+      </c>
+      <c r="E1338" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F1338" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="G1338" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="H1338" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="I1338" t="s" s="0">
+        <v>2763</v>
+      </c>
+      <c r="J1338" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="K1338" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="L1338" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M1338" t="s" s="0">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="s" s="0">
+        <v>2063</v>
+      </c>
+      <c r="B1339" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C1339" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="D1339" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="E1339" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="F1339" t="s" s="0">
+        <v>1959</v>
+      </c>
+      <c r="G1339" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="H1339" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I1339" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="J1339" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="K1339" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="L1339" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M1339" t="s" s="0">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B1340" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="C1340" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="D1340" t="s" s="0">
+        <v>1269</v>
+      </c>
+      <c r="E1340" t="s" s="0">
+        <v>1553</v>
+      </c>
+      <c r="F1340" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G1340" t="s" s="0">
+        <v>1593</v>
+      </c>
+      <c r="H1340" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="I1340" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="J1340" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="K1340" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="L1340" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="M1340" t="s" s="0">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="B1341" t="s" s="0">
+        <v>1645</v>
+      </c>
+      <c r="C1341" t="s" s="0">
+        <v>1327</v>
+      </c>
+      <c r="D1341" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="E1341" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="F1341" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G1341" t="s" s="0">
+        <v>1456</v>
+      </c>
+      <c r="H1341" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="I1341" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="J1341" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="K1341" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="L1341" t="s" s="0">
+        <v>1980</v>
+      </c>
+      <c r="M1341" t="s" s="0">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B1342" t="s" s="0">
+        <v>1957</v>
+      </c>
+      <c r="C1342" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D1342" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="E1342" t="s" s="0">
+        <v>2147</v>
+      </c>
+      <c r="F1342" t="s" s="0">
+        <v>2749</v>
+      </c>
+      <c r="G1342" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="H1342" t="s" s="0">
+        <v>2107</v>
+      </c>
+      <c r="I1342" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J1342" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="K1342" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="L1342" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="M1342" t="s" s="0">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="B1343" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="C1343" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="D1343" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="E1343" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="F1343" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="G1343" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="H1343" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="I1343" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J1343" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="K1343" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="L1343" t="s" s="0">
+        <v>1950</v>
+      </c>
+      <c r="M1343" t="s" s="0">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="B1344" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="C1344" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="D1344" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="E1344" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="F1344" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="G1344" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H1344" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="I1344" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="J1344" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="K1344" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L1344" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="M1344" t="s" s="0">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="B1345" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C1345" t="s" s="0">
+        <v>2139</v>
+      </c>
+      <c r="D1345" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="E1345" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="F1345" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="G1345" t="s" s="0">
+        <v>2252</v>
+      </c>
+      <c r="H1345" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="I1345" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="J1345" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="K1345" t="s" s="0">
+        <v>1214</v>
+      </c>
+      <c r="L1345" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="M1345" t="s" s="0">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="B1346" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="C1346" t="s" s="0">
+        <v>1941</v>
+      </c>
+      <c r="D1346" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="E1346" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="F1346" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="G1346" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="H1346" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="I1346" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J1346" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="K1346" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="L1346" t="s" s="0">
+        <v>1760</v>
+      </c>
+      <c r="M1346" t="s" s="0">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="B1347" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="C1347" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="D1347" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E1347" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="F1347" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="G1347" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="H1347" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="I1347" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="J1347" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="K1347" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="L1347" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="M1347" t="s" s="0">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="s" s="0">
+        <v>2586</v>
+      </c>
+      <c r="B1348" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="C1348" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="D1348" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E1348" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="F1348" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G1348" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="H1348" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="I1348" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="J1348" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="K1348" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L1348" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="M1348" t="s" s="0">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="B1349" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C1349" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="D1349" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="E1349" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="F1349" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="G1349" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="H1349" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="I1349" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="J1349" t="s" s="0">
+        <v>2933</v>
+      </c>
+      <c r="K1349" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="L1349" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="M1349" t="s" s="0">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="B1350" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="C1350" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="D1350" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="E1350" t="s" s="0">
+        <v>1708</v>
+      </c>
+      <c r="F1350" t="s" s="0">
+        <v>2033</v>
+      </c>
+      <c r="G1350" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="H1350" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="I1350" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="J1350" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="K1350" t="s" s="0">
+        <v>1667</v>
+      </c>
+      <c r="L1350" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="M1350" t="s" s="0">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="B1351" t="s" s="0">
+        <v>1945</v>
+      </c>
+      <c r="C1351" t="s" s="0">
+        <v>1682</v>
+      </c>
+      <c r="D1351" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="E1351" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1351" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="G1351" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="H1351" t="s" s="0">
+        <v>2338</v>
+      </c>
+      <c r="I1351" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="J1351" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="K1351" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="L1351" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="M1351" t="s" s="0">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s" s="0">
+        <v>1338</v>
+      </c>
+      <c r="B1352" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="C1352" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="D1352" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="E1352" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="F1352" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="G1352" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="H1352" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="I1352" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="J1352" t="s" s="0">
+        <v>1585</v>
+      </c>
+      <c r="K1352" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="L1352" t="s" s="0">
+        <v>2622</v>
+      </c>
+      <c r="M1352" t="s" s="0">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="B1353" t="s" s="0">
+        <v>1740</v>
+      </c>
+      <c r="C1353" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="D1353" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E1353" t="s" s="0">
+        <v>2592</v>
+      </c>
+      <c r="F1353" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="G1353" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="H1353" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="I1353" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="J1353" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="K1353" t="s" s="0">
+        <v>2181</v>
+      </c>
+      <c r="L1353" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="M1353" t="s" s="0">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B1354" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="C1354" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="D1354" t="s" s="0">
+        <v>2139</v>
+      </c>
+      <c r="E1354" t="s" s="0">
+        <v>1495</v>
+      </c>
+      <c r="F1354" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="G1354" t="s" s="0">
+        <v>2616</v>
+      </c>
+      <c r="H1354" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="I1354" t="s" s="0">
+        <v>1656</v>
+      </c>
+      <c r="J1354" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="K1354" t="s" s="0">
+        <v>1511</v>
+      </c>
+      <c r="L1354" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="M1354" t="s" s="0">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="s" s="0">
+        <v>1990</v>
+      </c>
+      <c r="B1355" t="s" s="0">
+        <v>1808</v>
+      </c>
+      <c r="C1355" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D1355" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="E1355" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F1355" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="G1355" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H1355" t="s" s="0">
+        <v>1509</v>
+      </c>
+      <c r="I1355" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="J1355" t="s" s="0">
+        <v>2318</v>
+      </c>
+      <c r="K1355" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="L1355" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="M1355" t="s" s="0">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="B1356" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="C1356" t="s" s="0">
+        <v>1892</v>
+      </c>
+      <c r="D1356" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="E1356" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="F1356" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="G1356" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="H1356" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I1356" t="s" s="0">
+        <v>2056</v>
+      </c>
+      <c r="J1356" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="K1356" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="L1356" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="M1356" t="s" s="0">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="B1357" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="C1357" t="s" s="0">
+        <v>2609</v>
+      </c>
+      <c r="D1357" t="s" s="0">
+        <v>1523</v>
+      </c>
+      <c r="E1357" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="F1357" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="G1357" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="H1357" t="s" s="0">
+        <v>2947</v>
+      </c>
+      <c r="I1357" t="s" s="0">
+        <v>2510</v>
+      </c>
+      <c r="J1357" t="s" s="0">
+        <v>1695</v>
+      </c>
+      <c r="K1357" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="L1357" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="M1357" t="s" s="0">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B1358" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="C1358" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D1358" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="E1358" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="F1358" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="G1358" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="H1358" t="s" s="0">
+        <v>2696</v>
+      </c>
+      <c r="I1358" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="J1358" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="K1358" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="L1358" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="M1358" t="s" s="0">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="B1359" t="s" s="0">
+        <v>1332</v>
+      </c>
+      <c r="C1359" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1359" t="s" s="0">
+        <v>1502</v>
+      </c>
+      <c r="E1359" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="F1359" t="s" s="0">
+        <v>2156</v>
+      </c>
+      <c r="G1359" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="H1359" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="I1359" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="J1359" t="s" s="0">
+        <v>3099</v>
+      </c>
+      <c r="K1359" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="L1359" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="M1359" t="s" s="0">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B1360" t="s" s="0">
+        <v>2114</v>
+      </c>
+      <c r="C1360" t="s" s="0">
+        <v>2749</v>
+      </c>
+      <c r="D1360" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E1360" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="F1360" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="G1360" t="s" s="0">
+        <v>1851</v>
+      </c>
+      <c r="H1360" t="s" s="0">
+        <v>1681</v>
+      </c>
+      <c r="I1360" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="J1360" t="s" s="0">
+        <v>1910</v>
+      </c>
+      <c r="K1360" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="L1360" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="M1360" t="s" s="0">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="B1361" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="C1361" t="s" s="0">
+        <v>2518</v>
+      </c>
+      <c r="D1361" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="E1361" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="F1361" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="G1361" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="H1361" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="I1361" t="s" s="0">
+        <v>1759</v>
+      </c>
+      <c r="J1361" t="s" s="0">
+        <v>2854</v>
+      </c>
+      <c r="K1361" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="L1361" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="M1361" t="s" s="0">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1362" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C1362" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="D1362" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E1362" t="s" s="0">
+        <v>2696</v>
+      </c>
+      <c r="F1362" t="s" s="0">
+        <v>2173</v>
+      </c>
+      <c r="G1362" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="H1362" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="I1362" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="J1362" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="K1362" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="L1362" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="M1362" t="s" s="0">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="s" s="0">
+        <v>2558</v>
+      </c>
+      <c r="B1363" t="s" s="0">
+        <v>1289</v>
+      </c>
+      <c r="C1363" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="D1363" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E1363" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="F1363" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="G1363" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H1363" t="s" s="0">
+        <v>1659</v>
+      </c>
+      <c r="I1363" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="J1363" t="s" s="0">
+        <v>1949</v>
+      </c>
+      <c r="K1363" t="s" s="0">
+        <v>2353</v>
+      </c>
+      <c r="L1363" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="M1363" t="s" s="0">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="B1364" t="s" s="0">
+        <v>1669</v>
+      </c>
+      <c r="C1364" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="D1364" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="E1364" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F1364" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="G1364" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="H1364" t="s" s="0">
+        <v>2025</v>
+      </c>
+      <c r="I1364" t="s" s="0">
+        <v>2845</v>
+      </c>
+      <c r="J1364" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="K1364" t="s" s="0">
+        <v>2343</v>
+      </c>
+      <c r="L1364" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="M1364" t="s" s="0">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="s" s="0">
+        <v>3034</v>
+      </c>
+      <c r="B1365" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="C1365" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="D1365" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="E1365" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="F1365" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="G1365" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="H1365" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="I1365" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="J1365" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="K1365" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="L1365" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="M1365" t="s" s="0">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="B1366" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="C1366" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="D1366" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="E1366" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="F1366" t="s" s="0">
+        <v>1279</v>
+      </c>
+      <c r="G1366" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="H1366" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="I1366" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="J1366" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="K1366" t="s" s="0">
+        <v>2375</v>
+      </c>
+      <c r="L1366" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="M1366" t="s" s="0">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B1367" t="s" s="0">
+        <v>2071</v>
+      </c>
+      <c r="C1367" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="D1367" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="E1367" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="F1367" t="s" s="0">
+        <v>1506</v>
+      </c>
+      <c r="G1367" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="H1367" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="I1367" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="J1367" t="s" s="0">
+        <v>2292</v>
+      </c>
+      <c r="K1367" t="s" s="0">
+        <v>2311</v>
+      </c>
+      <c r="L1367" t="s" s="0">
+        <v>1995</v>
+      </c>
+      <c r="M1367" t="s" s="0">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="s" s="0">
+        <v>1812</v>
+      </c>
+      <c r="B1368" t="s" s="0">
+        <v>2883</v>
+      </c>
+      <c r="C1368" t="s" s="0">
+        <v>1904</v>
+      </c>
+      <c r="D1368" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="E1368" t="s" s="0">
+        <v>2124</v>
+      </c>
+      <c r="F1368" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="G1368" t="s" s="0">
+        <v>2168</v>
+      </c>
+      <c r="H1368" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="I1368" t="s" s="0">
+        <v>1273</v>
+      </c>
+      <c r="J1368" t="s" s="0">
+        <v>1585</v>
+      </c>
+      <c r="K1368" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="L1368" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="M1368" t="s" s="0">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B1369" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="C1369" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="D1369" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="E1369" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="F1369" t="s" s="0">
+        <v>1555</v>
+      </c>
+      <c r="G1369" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="H1369" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="I1369" t="s" s="0">
+        <v>1880</v>
+      </c>
+      <c r="J1369" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="K1369" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="L1369" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="M1369" t="s" s="0">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="B1370" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="C1370" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D1370" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="E1370" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="F1370" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="G1370" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="H1370" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I1370" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="J1370" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="K1370" t="s" s="0">
+        <v>1261</v>
+      </c>
+      <c r="L1370" t="s" s="0">
+        <v>1646</v>
+      </c>
+      <c r="M1370" t="s" s="0">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="B1371" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="C1371" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="D1371" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="E1371" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="F1371" t="s" s="0">
+        <v>2874</v>
+      </c>
+      <c r="G1371" t="s" s="0">
+        <v>1882</v>
+      </c>
+      <c r="H1371" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="I1371" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="J1371" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="K1371" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="L1371" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="M1371" t="s" s="0">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1372" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="C1372" t="s" s="0">
+        <v>2486</v>
+      </c>
+      <c r="D1372" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="E1372" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="F1372" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="G1372" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="H1372" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="I1372" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="J1372" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="K1372" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="L1372" t="s" s="0">
+        <v>2125</v>
+      </c>
+      <c r="M1372" t="s" s="0">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="B1373" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C1373" t="s" s="0">
+        <v>2605</v>
+      </c>
+      <c r="D1373" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="E1373" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="F1373" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="G1373" t="s" s="0">
+        <v>2050</v>
+      </c>
+      <c r="H1373" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="I1373" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="J1373" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="K1373" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="L1373" t="s" s="0">
+        <v>3430</v>
+      </c>
+      <c r="M1373" t="s" s="0">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="B1374" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C1374" t="s" s="0">
+        <v>2107</v>
+      </c>
+      <c r="D1374" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="E1374" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1374" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="G1374" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="H1374" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="I1374" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="J1374" t="s" s="0">
+        <v>2087</v>
+      </c>
+      <c r="K1374" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="L1374" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="M1374" t="s" s="0">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B1375" t="s" s="0">
+        <v>2344</v>
+      </c>
+      <c r="C1375" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D1375" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1375" t="s" s="0">
+        <v>1913</v>
+      </c>
+      <c r="F1375" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="G1375" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H1375" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="I1375" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J1375" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="K1375" t="s" s="0">
+        <v>2154</v>
+      </c>
+      <c r="L1375" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M1375" t="s" s="0">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="s" s="0">
+        <v>1910</v>
+      </c>
+      <c r="B1376" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="C1376" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D1376" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E1376" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="F1376" t="s" s="0">
+        <v>2439</v>
+      </c>
+      <c r="G1376" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H1376" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="I1376" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="J1376" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="K1376" t="s" s="0">
+        <v>2547</v>
+      </c>
+      <c r="L1376" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="M1376" t="s" s="0">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="B1377" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="C1377" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="D1377" t="s" s="0">
+        <v>2722</v>
+      </c>
+      <c r="E1377" t="s" s="0">
+        <v>2143</v>
+      </c>
+      <c r="F1377" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="G1377" t="s" s="0">
+        <v>1661</v>
+      </c>
+      <c r="H1377" t="s" s="0">
+        <v>1278</v>
+      </c>
+      <c r="I1377" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="J1377" t="s" s="0">
+        <v>3034</v>
+      </c>
+      <c r="K1377" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="L1377" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="M1377" t="s" s="0">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B1378" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1378" t="s" s="0">
+        <v>2458</v>
+      </c>
+      <c r="D1378" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="E1378" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F1378" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="G1378" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="H1378" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="I1378" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="J1378" t="s" s="0">
+        <v>2038</v>
+      </c>
+      <c r="K1378" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="L1378" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="M1378" t="s" s="0">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1379" t="s" s="0">
+        <v>2584</v>
+      </c>
+      <c r="C1379" t="s" s="0">
+        <v>1501</v>
+      </c>
+      <c r="D1379" t="s" s="0">
+        <v>1729</v>
+      </c>
+      <c r="E1379" t="s" s="0">
+        <v>2601</v>
+      </c>
+      <c r="F1379" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="G1379" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="H1379" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="I1379" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="J1379" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K1379" t="s" s="0">
+        <v>2063</v>
+      </c>
+      <c r="L1379" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="M1379" t="s" s="0">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="s" s="0">
+        <v>2078</v>
+      </c>
+      <c r="B1380" t="s" s="0">
+        <v>1650</v>
+      </c>
+      <c r="C1380" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="D1380" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E1380" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="F1380" t="s" s="0">
+        <v>1702</v>
+      </c>
+      <c r="G1380" t="s" s="0">
+        <v>1744</v>
+      </c>
+      <c r="H1380" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="I1380" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="J1380" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="K1380" t="s" s="0">
+        <v>1555</v>
+      </c>
+      <c r="L1380" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="M1380" t="s" s="0">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="s" s="0">
+        <v>2782</v>
+      </c>
+      <c r="B1381" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="C1381" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="D1381" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="E1381" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="F1381" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="G1381" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="H1381" t="s" s="0">
+        <v>2560</v>
+      </c>
+      <c r="I1381" t="s" s="0">
+        <v>2013</v>
+      </c>
+      <c r="J1381" t="s" s="0">
+        <v>1654</v>
+      </c>
+      <c r="K1381" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="L1381" t="s" s="0">
+        <v>2052</v>
+      </c>
+      <c r="M1381" t="s" s="0">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B1382" t="s" s="0">
+        <v>2282</v>
+      </c>
+      <c r="C1382" t="s" s="0">
+        <v>2089</v>
+      </c>
+      <c r="D1382" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E1382" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="F1382" t="s" s="0">
+        <v>2039</v>
+      </c>
+      <c r="G1382" t="s" s="0">
+        <v>2008</v>
+      </c>
+      <c r="H1382" t="s" s="0">
+        <v>1119</v>
+      </c>
+      <c r="I1382" t="s" s="0">
+        <v>2075</v>
+      </c>
+      <c r="J1382" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="K1382" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="L1382" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M1382" t="s" s="0">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="s" s="0">
+        <v>2269</v>
+      </c>
+      <c r="B1383" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="C1383" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="D1383" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="E1383" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="F1383" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="G1383" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H1383" t="s" s="0">
+        <v>1999</v>
+      </c>
+      <c r="I1383" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J1383" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K1383" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="L1383" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="M1383" t="s" s="0">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="B1384" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="C1384" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="D1384" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="E1384" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="F1384" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G1384" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="H1384" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="I1384" t="s" s="0">
+        <v>1072</v>
+      </c>
+      <c r="J1384" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="K1384" t="s" s="0">
+        <v>1412</v>
+      </c>
+      <c r="L1384" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M1384" t="s" s="0">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="s" s="0">
+        <v>1710</v>
+      </c>
+      <c r="B1385" t="s" s="0">
+        <v>1881</v>
+      </c>
+      <c r="C1385" t="s" s="0">
+        <v>2214</v>
+      </c>
+      <c r="D1385" t="s" s="0">
+        <v>2156</v>
+      </c>
+      <c r="E1385" t="s" s="0">
+        <v>2363</v>
+      </c>
+      <c r="F1385" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="G1385" t="s" s="0">
+        <v>1889</v>
+      </c>
+      <c r="H1385" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="I1385" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="J1385" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="K1385" t="s" s="0">
+        <v>2730</v>
+      </c>
+      <c r="L1385" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="M1385" t="s" s="0">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="s" s="0">
+        <v>1810</v>
+      </c>
+      <c r="B1386" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="C1386" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D1386" t="s" s="0">
+        <v>1284</v>
+      </c>
+      <c r="E1386" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="F1386" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="G1386" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="H1386" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="I1386" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="J1386" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="K1386" t="s" s="0">
+        <v>2191</v>
+      </c>
+      <c r="L1386" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="M1386" t="s" s="0">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B1387" t="s" s="0">
+        <v>2014</v>
+      </c>
+      <c r="C1387" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="D1387" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E1387" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="F1387" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="G1387" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="H1387" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="I1387" t="s" s="0">
+        <v>3034</v>
+      </c>
+      <c r="J1387" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="K1387" t="s" s="0">
+        <v>3049</v>
+      </c>
+      <c r="L1387" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="M1387" t="s" s="0">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="B1388" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="C1388" t="s" s="0">
+        <v>2651</v>
+      </c>
+      <c r="D1388" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E1388" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="F1388" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="G1388" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="H1388" t="s" s="0">
+        <v>1867</v>
+      </c>
+      <c r="I1388" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="J1388" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="K1388" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="L1388" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="M1388" t="s" s="0">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="B1389" t="s" s="0">
+        <v>2266</v>
+      </c>
+      <c r="C1389" t="s" s="0">
+        <v>2129</v>
+      </c>
+      <c r="D1389" t="s" s="0">
+        <v>1266</v>
+      </c>
+      <c r="E1389" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="F1389" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="G1389" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="H1389" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="I1389" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="J1389" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="K1389" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="L1389" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="M1389" t="s" s="0">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="B1390" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="C1390" t="s" s="0">
+        <v>2339</v>
+      </c>
+      <c r="D1390" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="E1390" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="F1390" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="G1390" t="s" s="0">
+        <v>2510</v>
+      </c>
+      <c r="H1390" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="I1390" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J1390" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="K1390" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="L1390" t="s" s="0">
+        <v>1725</v>
+      </c>
+      <c r="M1390" t="s" s="0">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1391" t="s" s="0">
+        <v>2150</v>
+      </c>
+      <c r="C1391" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="D1391" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="E1391" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F1391" t="s" s="0">
+        <v>1929</v>
+      </c>
+      <c r="G1391" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H1391" t="s" s="0">
+        <v>1678</v>
+      </c>
+      <c r="I1391" t="s" s="0">
+        <v>1737</v>
+      </c>
+      <c r="J1391" t="s" s="0">
+        <v>1930</v>
+      </c>
+      <c r="K1391" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="L1391" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="M1391" t="s" s="0">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="B1392" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="C1392" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D1392" t="s" s="0">
+        <v>2457</v>
+      </c>
+      <c r="E1392" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="F1392" t="s" s="0">
+        <v>1856</v>
+      </c>
+      <c r="G1392" t="s" s="0">
+        <v>2023</v>
+      </c>
+      <c r="H1392" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="I1392" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="J1392" t="s" s="0">
+        <v>1760</v>
+      </c>
+      <c r="K1392" t="s" s="0">
+        <v>2086</v>
+      </c>
+      <c r="L1392" t="s" s="0">
+        <v>1673</v>
+      </c>
+      <c r="M1392" t="s" s="0">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="B1393" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="C1393" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="D1393" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="E1393" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="F1393" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="G1393" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="H1393" t="s" s="0">
+        <v>2472</v>
+      </c>
+      <c r="I1393" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="J1393" t="s" s="0">
+        <v>1968</v>
+      </c>
+      <c r="K1393" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="L1393" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="M1393" t="s" s="0">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s" s="0">
+        <v>1730</v>
+      </c>
+      <c r="B1394" t="s" s="0">
+        <v>2101</v>
+      </c>
+      <c r="C1394" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="D1394" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="E1394" t="s" s="0">
+        <v>2422</v>
+      </c>
+      <c r="F1394" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="G1394" t="s" s="0">
+        <v>2261</v>
+      </c>
+      <c r="H1394" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="I1394" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="J1394" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="K1394" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="L1394" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="M1394" t="s" s="0">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B1395" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="C1395" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="D1395" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="E1395" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="F1395" t="s" s="0">
+        <v>1965</v>
+      </c>
+      <c r="G1395" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="H1395" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="I1395" t="s" s="0">
+        <v>1630</v>
+      </c>
+      <c r="J1395" t="s" s="0">
+        <v>1759</v>
+      </c>
+      <c r="K1395" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="L1395" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="M1395" t="s" s="0">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="B1396" t="s" s="0">
+        <v>1635</v>
+      </c>
+      <c r="C1396" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="D1396" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E1396" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F1396" t="s" s="0">
+        <v>1984</v>
+      </c>
+      <c r="G1396" t="s" s="0">
+        <v>1391</v>
+      </c>
+      <c r="H1396" t="s" s="0">
+        <v>2136</v>
+      </c>
+      <c r="I1396" t="s" s="0">
+        <v>1556</v>
+      </c>
+      <c r="J1396" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="K1396" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L1396" t="s" s="0">
+        <v>2344</v>
+      </c>
+      <c r="M1396" t="s" s="0">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="B1397" t="s" s="0">
+        <v>1570</v>
+      </c>
+      <c r="C1397" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D1397" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="E1397" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="F1397" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="G1397" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="H1397" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="I1397" t="s" s="0">
+        <v>1977</v>
+      </c>
+      <c r="J1397" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K1397" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="L1397" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="M1397" t="s" s="0">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s" s="0">
+        <v>1925</v>
+      </c>
+      <c r="B1398" t="s" s="0">
+        <v>1329</v>
+      </c>
+      <c r="C1398" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="D1398" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="E1398" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F1398" t="s" s="0">
+        <v>2154</v>
+      </c>
+      <c r="G1398" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="H1398" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="I1398" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="J1398" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K1398" t="s" s="0">
+        <v>2142</v>
+      </c>
+      <c r="L1398" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="M1398" t="s" s="0">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B1399" t="s" s="0">
+        <v>2190</v>
+      </c>
+      <c r="C1399" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D1399" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="E1399" t="s" s="0">
+        <v>2045</v>
+      </c>
+      <c r="F1399" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="G1399" t="s" s="0">
+        <v>2617</v>
+      </c>
+      <c r="H1399" t="s" s="0">
+        <v>1920</v>
+      </c>
+      <c r="I1399" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="J1399" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="K1399" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="L1399" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="M1399" t="s" s="0">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="B1400" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="C1400" t="s" s="0">
+        <v>1725</v>
+      </c>
+      <c r="D1400" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="E1400" t="s" s="0">
+        <v>2712</v>
+      </c>
+      <c r="F1400" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="G1400" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="H1400" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I1400" t="s" s="0">
+        <v>1648</v>
+      </c>
+      <c r="J1400" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="K1400" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="L1400" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="M1400" t="s" s="0">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="B1401" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="C1401" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D1401" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="E1401" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F1401" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="G1401" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="H1401" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="I1401" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="J1401" t="s" s="0">
+        <v>1270</v>
+      </c>
+      <c r="K1401" t="s" s="0">
+        <v>1706</v>
+      </c>
+      <c r="L1401" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="M1401" t="s" s="0">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="B1402" t="s" s="0">
+        <v>1303</v>
+      </c>
+      <c r="C1402" t="s" s="0">
+        <v>2518</v>
+      </c>
+      <c r="D1402" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="E1402" t="s" s="0">
+        <v>1501</v>
+      </c>
+      <c r="F1402" t="s" s="0">
+        <v>2124</v>
+      </c>
+      <c r="G1402" t="s" s="0">
+        <v>1454</v>
+      </c>
+      <c r="H1402" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="I1402" t="s" s="0">
+        <v>1929</v>
+      </c>
+      <c r="J1402" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="K1402" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="L1402" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M1402" t="s" s="0">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="B1403" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C1403" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="D1403" t="s" s="0">
+        <v>1640</v>
+      </c>
+      <c r="E1403" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="F1403" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G1403" t="s" s="0">
+        <v>2289</v>
+      </c>
+      <c r="H1403" t="s" s="0">
+        <v>2130</v>
+      </c>
+      <c r="I1403" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="J1403" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="K1403" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="L1403" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="M1403" t="s" s="0">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B1404" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="C1404" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="D1404" t="s" s="0">
+        <v>1608</v>
+      </c>
+      <c r="E1404" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="F1404" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="G1404" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="H1404" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="I1404" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="J1404" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="K1404" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="L1404" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="M1404" t="s" s="0">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B1405" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="C1405" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="D1405" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E1405" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="F1405" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="G1405" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="H1405" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="I1405" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J1405" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="K1405" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="L1405" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="M1405" t="s" s="0">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B1406" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="C1406" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D1406" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="E1406" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="F1406" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="G1406" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="H1406" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="I1406" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="J1406" t="s" s="0">
+        <v>2379</v>
+      </c>
+      <c r="K1406" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="L1406" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="M1406" t="s" s="0">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B1407" t="s" s="0">
+        <v>2134</v>
+      </c>
+      <c r="C1407" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="D1407" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="E1407" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="F1407" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="G1407" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="H1407" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="I1407" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="J1407" t="s" s="0">
+        <v>2452</v>
+      </c>
+      <c r="K1407" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="L1407" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="M1407" t="s" s="0">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="s" s="0">
+        <v>1636</v>
+      </c>
+      <c r="B1408" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C1408" t="s" s="0">
+        <v>2096</v>
+      </c>
+      <c r="D1408" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="E1408" t="s" s="0">
+        <v>2765</v>
+      </c>
+      <c r="F1408" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="G1408" t="s" s="0">
+        <v>1643</v>
+      </c>
+      <c r="H1408" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="I1408" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="J1408" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="K1408" t="s" s="0">
+        <v>1943</v>
+      </c>
+      <c r="L1408" t="s" s="0">
+        <v>1988</v>
+      </c>
+      <c r="M1408" t="s" s="0">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B1409" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C1409" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="D1409" t="s" s="0">
+        <v>3467</v>
+      </c>
+      <c r="E1409" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F1409" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="G1409" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="H1409" t="s" s="0">
+        <v>2085</v>
+      </c>
+      <c r="I1409" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="J1409" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K1409" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="L1409" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="M1409" t="s" s="0">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="s" s="0">
+        <v>1266</v>
+      </c>
+      <c r="B1410" t="s" s="0">
+        <v>2533</v>
+      </c>
+      <c r="C1410" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D1410" t="s" s="0">
+        <v>2279</v>
+      </c>
+      <c r="E1410" t="s" s="0">
+        <v>1318</v>
+      </c>
+      <c r="F1410" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1410" t="s" s="0">
+        <v>2213</v>
+      </c>
+      <c r="H1410" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="I1410" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="J1410" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="K1410" t="s" s="0">
+        <v>1318</v>
+      </c>
+      <c r="L1410" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="M1410" t="s" s="0">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="s" s="0">
+        <v>1562</v>
+      </c>
+      <c r="B1411" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="C1411" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="D1411" t="s" s="0">
+        <v>2552</v>
+      </c>
+      <c r="E1411" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="F1411" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="G1411" t="s" s="0">
+        <v>2062</v>
+      </c>
+      <c r="H1411" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="I1411" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="J1411" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="K1411" t="s" s="0">
+        <v>1705</v>
+      </c>
+      <c r="L1411" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="M1411" t="s" s="0">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="B1412" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C1412" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="D1412" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E1412" t="s" s="0">
+        <v>1954</v>
+      </c>
+      <c r="F1412" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="G1412" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="H1412" t="s" s="0">
+        <v>2725</v>
+      </c>
+      <c r="I1412" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="J1412" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="K1412" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="L1412" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="M1412" t="s" s="0">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B1413" t="s" s="0">
+        <v>2223</v>
+      </c>
+      <c r="C1413" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="D1413" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="E1413" t="s" s="0">
+        <v>1273</v>
+      </c>
+      <c r="F1413" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="G1413" t="s" s="0">
+        <v>2131</v>
+      </c>
+      <c r="H1413" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="I1413" t="s" s="0">
+        <v>2680</v>
+      </c>
+      <c r="J1413" t="s" s="0">
+        <v>1273</v>
+      </c>
+      <c r="K1413" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="L1413" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="M1413" t="s" s="0">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B1414" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="C1414" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="D1414" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="E1414" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F1414" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="G1414" t="s" s="0">
+        <v>1861</v>
+      </c>
+      <c r="H1414" t="s" s="0">
+        <v>1731</v>
+      </c>
+      <c r="I1414" t="s" s="0">
+        <v>1392</v>
+      </c>
+      <c r="J1414" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="K1414" t="s" s="0">
+        <v>2758</v>
+      </c>
+      <c r="L1414" t="s" s="0">
+        <v>1833</v>
+      </c>
+      <c r="M1414" t="s" s="0">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B1415" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="C1415" t="s" s="0">
+        <v>2528</v>
+      </c>
+      <c r="D1415" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E1415" t="s" s="0">
+        <v>1957</v>
+      </c>
+      <c r="F1415" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="G1415" t="s" s="0">
+        <v>1814</v>
+      </c>
+      <c r="H1415" t="s" s="0">
+        <v>1918</v>
+      </c>
+      <c r="I1415" t="s" s="0">
+        <v>2347</v>
+      </c>
+      <c r="J1415" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="K1415" t="s" s="0">
+        <v>2134</v>
+      </c>
+      <c r="L1415" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="M1415" t="s" s="0">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="B1416" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="C1416" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="D1416" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="E1416" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="F1416" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="G1416" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="H1416" t="s" s="0">
+        <v>2660</v>
+      </c>
+      <c r="I1416" t="s" s="0">
+        <v>1523</v>
+      </c>
+      <c r="J1416" t="s" s="0">
+        <v>1916</v>
+      </c>
+      <c r="K1416" t="s" s="0">
+        <v>2270</v>
+      </c>
+      <c r="L1416" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="M1416" t="s" s="0">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="B1417" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="C1417" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="D1417" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1417" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="F1417" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="G1417" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="H1417" t="s" s="0">
+        <v>2125</v>
+      </c>
+      <c r="I1417" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="J1417" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="K1417" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="L1417" t="s" s="0">
+        <v>2098</v>
+      </c>
+      <c r="M1417" t="s" s="0">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="B1418" t="s" s="0">
+        <v>2609</v>
+      </c>
+      <c r="C1418" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D1418" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E1418" t="s" s="0">
+        <v>1310</v>
+      </c>
+      <c r="F1418" t="s" s="0">
+        <v>2112</v>
+      </c>
+      <c r="G1418" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="H1418" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="I1418" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="J1418" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="K1418" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="L1418" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="M1418" t="s" s="0">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="s" s="0">
+        <v>1961</v>
+      </c>
+      <c r="B1419" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C1419" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D1419" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="E1419" t="s" s="0">
+        <v>2486</v>
+      </c>
+      <c r="F1419" t="s" s="0">
+        <v>1671</v>
+      </c>
+      <c r="G1419" t="s" s="0">
+        <v>2539</v>
+      </c>
+      <c r="H1419" t="s" s="0">
+        <v>1927</v>
+      </c>
+      <c r="I1419" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="J1419" t="s" s="0">
+        <v>2162</v>
+      </c>
+      <c r="K1419" t="s" s="0">
+        <v>1290</v>
+      </c>
+      <c r="L1419" t="s" s="0">
+        <v>2562</v>
+      </c>
+      <c r="M1419" t="s" s="0">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="B1420" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="C1420" t="s" s="0">
+        <v>1753</v>
+      </c>
+      <c r="D1420" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E1420" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="F1420" t="s" s="0">
+        <v>2316</v>
+      </c>
+      <c r="G1420" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="H1420" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="I1420" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="J1420" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="K1420" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="L1420" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="M1420" t="s" s="0">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="B1421" t="s" s="0">
+        <v>1812</v>
+      </c>
+      <c r="C1421" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="D1421" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="E1421" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="F1421" t="s" s="0">
+        <v>1264</v>
+      </c>
+      <c r="G1421" t="s" s="0">
+        <v>2453</v>
+      </c>
+      <c r="H1421" t="s" s="0">
+        <v>1908</v>
+      </c>
+      <c r="I1421" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="J1421" t="s" s="0">
+        <v>2492</v>
+      </c>
+      <c r="K1421" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="L1421" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="M1421" t="s" s="0">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="B1422" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="C1422" t="s" s="0">
+        <v>2112</v>
+      </c>
+      <c r="D1422" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E1422" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F1422" t="s" s="0">
+        <v>2365</v>
+      </c>
+      <c r="G1422" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="H1422" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="I1422" t="s" s="0">
+        <v>1237</v>
+      </c>
+      <c r="J1422" t="s" s="0">
+        <v>1724</v>
+      </c>
+      <c r="K1422" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="L1422" t="s" s="0">
+        <v>2758</v>
+      </c>
+      <c r="M1422" t="s" s="0">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="B1423" t="s" s="0">
+        <v>2198</v>
+      </c>
+      <c r="C1423" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="D1423" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="E1423" t="s" s="0">
+        <v>2223</v>
+      </c>
+      <c r="F1423" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="G1423" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="H1423" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="I1423" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="J1423" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="K1423" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="L1423" t="s" s="0">
+        <v>1709</v>
+      </c>
+      <c r="M1423" t="s" s="0">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="s" s="0">
+        <v>1579</v>
+      </c>
+      <c r="B1424" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C1424" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="D1424" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="E1424" t="s" s="0">
+        <v>1416</v>
+      </c>
+      <c r="F1424" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G1424" t="s" s="0">
+        <v>1914</v>
+      </c>
+      <c r="H1424" t="s" s="0">
+        <v>2114</v>
+      </c>
+      <c r="I1424" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="J1424" t="s" s="0">
+        <v>2091</v>
+      </c>
+      <c r="K1424" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="L1424" t="s" s="0">
+        <v>2552</v>
+      </c>
+      <c r="M1424" t="s" s="0">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="s" s="0">
+        <v>2080</v>
+      </c>
+      <c r="B1425" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="C1425" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D1425" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="E1425" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="F1425" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="G1425" t="s" s="0">
+        <v>2178</v>
+      </c>
+      <c r="H1425" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="I1425" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="J1425" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="K1425" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="L1425" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="M1425" t="s" s="0">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B1426" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C1426" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="D1426" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="E1426" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="F1426" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G1426" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H1426" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="I1426" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="J1426" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="K1426" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="L1426" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="M1426" t="s" s="0">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="s" s="0">
+        <v>1224</v>
+      </c>
+      <c r="B1427" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="C1427" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="D1427" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="E1427" t="s" s="0">
+        <v>1620</v>
+      </c>
+      <c r="F1427" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="G1427" t="s" s="0">
+        <v>2558</v>
+      </c>
+      <c r="H1427" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="I1427" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="J1427" t="s" s="0">
+        <v>1376</v>
+      </c>
+      <c r="K1427" t="s" s="0">
+        <v>2034</v>
+      </c>
+      <c r="L1427" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="M1427" t="s" s="0">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="B1428" t="s" s="0">
+        <v>1632</v>
+      </c>
+      <c r="C1428" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="D1428" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E1428" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="F1428" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="G1428" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="H1428" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="I1428" t="s" s="0">
+        <v>1641</v>
+      </c>
+      <c r="J1428" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="K1428" t="s" s="0">
+        <v>2263</v>
+      </c>
+      <c r="L1428" t="s" s="0">
+        <v>1749</v>
+      </c>
+      <c r="M1428" t="s" s="0">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="s" s="0">
+        <v>1934</v>
+      </c>
+      <c r="B1429" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C1429" t="s" s="0">
+        <v>2227</v>
+      </c>
+      <c r="D1429" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E1429" t="s" s="0">
+        <v>1697</v>
+      </c>
+      <c r="F1429" t="s" s="0">
+        <v>2464</v>
+      </c>
+      <c r="G1429" t="s" s="0">
+        <v>2801</v>
+      </c>
+      <c r="H1429" t="s" s="0">
+        <v>2093</v>
+      </c>
+      <c r="I1429" t="s" s="0">
+        <v>1762</v>
+      </c>
+      <c r="J1429" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="K1429" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="L1429" t="s" s="0">
+        <v>1274</v>
+      </c>
+      <c r="M1429" t="s" s="0">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="B1430" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="C1430" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="D1430" t="s" s="0">
+        <v>2592</v>
+      </c>
+      <c r="E1430" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F1430" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="G1430" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="H1430" t="s" s="0">
+        <v>2709</v>
+      </c>
+      <c r="I1430" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="J1430" t="s" s="0">
+        <v>1976</v>
+      </c>
+      <c r="K1430" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="L1430" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="M1430" t="s" s="0">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B1431" t="s" s="0">
+        <v>2247</v>
+      </c>
+      <c r="C1431" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="D1431" t="s" s="0">
+        <v>2229</v>
+      </c>
+      <c r="E1431" t="s" s="0">
+        <v>2528</v>
+      </c>
+      <c r="F1431" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="G1431" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="H1431" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="I1431" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="J1431" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="K1431" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="L1431" t="s" s="0">
+        <v>1367</v>
+      </c>
+      <c r="M1431" t="s" s="0">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="B1432" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="C1432" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="D1432" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E1432" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="F1432" t="s" s="0">
+        <v>1594</v>
+      </c>
+      <c r="G1432" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="H1432" t="s" s="0">
+        <v>2313</v>
+      </c>
+      <c r="I1432" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="J1432" t="s" s="0">
+        <v>2699</v>
+      </c>
+      <c r="K1432" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="L1432" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="M1432" t="s" s="0">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="B1433" t="s" s="0">
+        <v>1711</v>
+      </c>
+      <c r="C1433" t="s" s="0">
+        <v>2511</v>
+      </c>
+      <c r="D1433" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="E1433" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="F1433" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G1433" t="s" s="0">
+        <v>1396</v>
+      </c>
+      <c r="H1433" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="I1433" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="J1433" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="K1433" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="L1433" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="M1433" t="s" s="0">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B1434" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="C1434" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="D1434" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="E1434" t="s" s="0">
+        <v>1571</v>
+      </c>
+      <c r="F1434" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="G1434" t="s" s="0">
+        <v>2201</v>
+      </c>
+      <c r="H1434" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="I1434" t="s" s="0">
+        <v>2387</v>
+      </c>
+      <c r="J1434" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="K1434" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="L1434" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="M1434" t="s" s="0">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B1435" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="C1435" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D1435" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="E1435" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="F1435" t="s" s="0">
+        <v>2104</v>
+      </c>
+      <c r="G1435" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="H1435" t="s" s="0">
+        <v>1325</v>
+      </c>
+      <c r="I1435" t="s" s="0">
+        <v>2166</v>
+      </c>
+      <c r="J1435" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="K1435" t="s" s="0">
+        <v>1642</v>
+      </c>
+      <c r="L1435" t="s" s="0">
+        <v>1687</v>
+      </c>
+      <c r="M1435" t="s" s="0">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="B1436" t="s" s="0">
+        <v>1732</v>
+      </c>
+      <c r="C1436" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="D1436" t="s" s="0">
+        <v>2231</v>
+      </c>
+      <c r="E1436" t="s" s="0">
+        <v>2358</v>
+      </c>
+      <c r="F1436" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="G1436" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="H1436" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="I1436" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="J1436" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K1436" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="L1436" t="s" s="0">
+        <v>2376</v>
+      </c>
+      <c r="M1436" t="s" s="0">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B1437" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C1437" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="D1437" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="E1437" t="s" s="0">
+        <v>1563</v>
+      </c>
+      <c r="F1437" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="G1437" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="H1437" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="I1437" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="J1437" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="K1437" t="s" s="0">
+        <v>2439</v>
+      </c>
+      <c r="L1437" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="M1437" t="s" s="0">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="B1438" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="C1438" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="D1438" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E1438" t="s" s="0">
+        <v>2007</v>
+      </c>
+      <c r="F1438" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="G1438" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="H1438" t="s" s="0">
+        <v>1869</v>
+      </c>
+      <c r="I1438" t="s" s="0">
+        <v>2030</v>
+      </c>
+      <c r="J1438" t="s" s="0">
+        <v>1823</v>
+      </c>
+      <c r="K1438" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="L1438" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="M1438" t="s" s="0">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="s" s="0">
+        <v>2418</v>
+      </c>
+      <c r="B1439" t="s" s="0">
+        <v>2649</v>
+      </c>
+      <c r="C1439" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="D1439" t="s" s="0">
+        <v>1886</v>
+      </c>
+      <c r="E1439" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="F1439" t="s" s="0">
+        <v>2217</v>
+      </c>
+      <c r="G1439" t="s" s="0">
+        <v>2537</v>
+      </c>
+      <c r="H1439" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="I1439" t="s" s="0">
+        <v>2109</v>
+      </c>
+      <c r="J1439" t="s" s="0">
+        <v>2078</v>
+      </c>
+      <c r="K1439" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="L1439" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="M1439" t="s" s="0">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="B1440" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="C1440" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D1440" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="E1440" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="F1440" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="G1440" t="s" s="0">
+        <v>2145</v>
+      </c>
+      <c r="H1440" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="I1440" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="J1440" t="s" s="0">
+        <v>2319</v>
+      </c>
+      <c r="K1440" t="s" s="0">
+        <v>1386</v>
+      </c>
+      <c r="L1440" t="s" s="0">
+        <v>2197</v>
+      </c>
+      <c r="M1440" t="s" s="0">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B1441" t="s" s="0">
+        <v>2158</v>
+      </c>
+      <c r="C1441" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D1441" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="E1441" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="F1441" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="G1441" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H1441" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="I1441" t="s" s="0">
+        <v>2214</v>
+      </c>
+      <c r="J1441" t="s" s="0">
+        <v>1827</v>
+      </c>
+      <c r="K1441" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="L1441" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="M1441" t="s" s="0">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B1442" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C1442" t="s" s="0">
+        <v>1992</v>
+      </c>
+      <c r="D1442" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="E1442" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F1442" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="G1442" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="H1442" t="s" s="0">
+        <v>1676</v>
+      </c>
+      <c r="I1442" t="s" s="0">
+        <v>2600</v>
+      </c>
+      <c r="J1442" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="K1442" t="s" s="0">
+        <v>1451</v>
+      </c>
+      <c r="L1442" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="M1442" t="s" s="0">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="B1443" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="C1443" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D1443" t="s" s="0">
+        <v>2369</v>
+      </c>
+      <c r="E1443" t="s" s="0">
+        <v>1547</v>
+      </c>
+      <c r="F1443" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="G1443" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="H1443" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="I1443" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="J1443" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="K1443" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="L1443" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="M1443" t="s" s="0">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="s" s="0">
+        <v>2369</v>
+      </c>
+      <c r="B1444" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="C1444" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="D1444" t="s" s="0">
+        <v>2398</v>
+      </c>
+      <c r="E1444" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="F1444" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="G1444" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H1444" t="s" s="0">
+        <v>2671</v>
+      </c>
+      <c r="I1444" t="s" s="0">
+        <v>1884</v>
+      </c>
+      <c r="J1444" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K1444" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="L1444" t="s" s="0">
+        <v>1897</v>
+      </c>
+      <c r="M1444" t="s" s="0">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B1445" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="C1445" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="D1445" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E1445" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F1445" t="s" s="0">
+        <v>1922</v>
+      </c>
+      <c r="G1445" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="H1445" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="I1445" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="J1445" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="K1445" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="L1445" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="M1445" t="s" s="0">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B1446" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="C1446" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="D1446" t="s" s="0">
+        <v>2186</v>
+      </c>
+      <c r="E1446" t="s" s="0">
+        <v>2047</v>
+      </c>
+      <c r="F1446" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="G1446" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="H1446" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="I1446" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="J1446" t="s" s="0">
+        <v>2058</v>
+      </c>
+      <c r="K1446" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="L1446" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="M1446" t="s" s="0">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="s" s="0">
+        <v>1625</v>
+      </c>
+      <c r="B1447" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="C1447" t="s" s="0">
+        <v>2584</v>
+      </c>
+      <c r="D1447" t="s" s="0">
+        <v>2183</v>
+      </c>
+      <c r="E1447" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="F1447" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="G1447" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="H1447" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="I1447" t="s" s="0">
+        <v>2510</v>
+      </c>
+      <c r="J1447" t="s" s="0">
+        <v>2074</v>
+      </c>
+      <c r="K1447" t="s" s="0">
+        <v>2129</v>
+      </c>
+      <c r="L1447" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="M1447" t="s" s="0">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="B1448" t="s" s="0">
+        <v>2462</v>
+      </c>
+      <c r="C1448" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="D1448" t="s" s="0">
+        <v>1965</v>
+      </c>
+      <c r="E1448" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="F1448" t="s" s="0">
+        <v>1560</v>
+      </c>
+      <c r="G1448" t="s" s="0">
+        <v>1395</v>
+      </c>
+      <c r="H1448" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="I1448" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="J1448" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="K1448" t="s" s="0">
+        <v>2365</v>
+      </c>
+      <c r="L1448" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="M1448" t="s" s="0">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1449" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="C1449" t="s" s="0">
+        <v>2139</v>
+      </c>
+      <c r="D1449" t="s" s="0">
+        <v>2100</v>
+      </c>
+      <c r="E1449" t="s" s="0">
+        <v>2531</v>
+      </c>
+      <c r="F1449" t="s" s="0">
+        <v>1853</v>
+      </c>
+      <c r="G1449" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="H1449" t="s" s="0">
+        <v>1705</v>
+      </c>
+      <c r="I1449" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="J1449" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="K1449" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="L1449" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="M1449" t="s" s="0">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B1450" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C1450" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="D1450" t="s" s="0">
+        <v>2070</v>
+      </c>
+      <c r="E1450" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="F1450" t="s" s="0">
+        <v>2124</v>
+      </c>
+      <c r="G1450" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="H1450" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="I1450" t="s" s="0">
+        <v>1741</v>
+      </c>
+      <c r="J1450" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="K1450" t="s" s="0">
+        <v>2521</v>
+      </c>
+      <c r="L1450" t="s" s="0">
+        <v>2110</v>
+      </c>
+      <c r="M1450" t="s" s="0">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B1451" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C1451" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="D1451" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="E1451" t="s" s="0">
+        <v>1280</v>
+      </c>
+      <c r="F1451" t="s" s="0">
+        <v>1698</v>
+      </c>
+      <c r="G1451" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="H1451" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="I1451" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="J1451" t="s" s="0">
+        <v>1666</v>
+      </c>
+      <c r="K1451" t="s" s="0">
+        <v>2158</v>
+      </c>
+      <c r="L1451" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="M1451" t="s" s="0">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="B1452" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="C1452" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="D1452" t="s" s="0">
+        <v>2081</v>
+      </c>
+      <c r="E1452" t="s" s="0">
+        <v>1626</v>
+      </c>
+      <c r="F1452" t="s" s="0">
+        <v>2103</v>
+      </c>
+      <c r="G1452" t="s" s="0">
+        <v>2165</v>
+      </c>
+      <c r="H1452" t="s" s="0">
+        <v>1806</v>
+      </c>
+      <c r="I1452" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="J1452" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="K1452" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="L1452" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="M1452" t="s" s="0">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="B1453" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="C1453" t="s" s="0">
+        <v>1680</v>
+      </c>
+      <c r="D1453" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="E1453" t="s" s="0">
+        <v>2479</v>
+      </c>
+      <c r="F1453" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1453" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="H1453" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="I1453" t="s" s="0">
+        <v>2604</v>
+      </c>
+      <c r="J1453" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="K1453" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="L1453" t="s" s="0">
+        <v>1638</v>
+      </c>
+      <c r="M1453" t="s" s="0">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="B1454" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C1454" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D1454" t="s" s="0">
+        <v>2251</v>
+      </c>
+      <c r="E1454" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F1454" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="G1454" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="H1454" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="I1454" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="J1454" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="K1454" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="L1454" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="M1454" t="s" s="0">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B1455" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C1455" t="s" s="0">
+        <v>1685</v>
+      </c>
+      <c r="D1455" t="s" s="0">
+        <v>2089</v>
+      </c>
+      <c r="E1455" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="F1455" t="s" s="0">
+        <v>1690</v>
+      </c>
+      <c r="G1455" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="H1455" t="s" s="0">
+        <v>1325</v>
+      </c>
+      <c r="I1455" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="J1455" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="K1455" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="L1455" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="M1455" t="s" s="0">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B1456" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="C1456" t="s" s="0">
+        <v>1949</v>
+      </c>
+      <c r="D1456" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="E1456" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="F1456" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="G1456" t="s" s="0">
+        <v>1339</v>
+      </c>
+      <c r="H1456" t="s" s="0">
+        <v>1995</v>
+      </c>
+      <c r="I1456" t="s" s="0">
+        <v>1936</v>
+      </c>
+      <c r="J1456" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="K1456" t="s" s="0">
+        <v>3034</v>
+      </c>
+      <c r="L1456" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="M1456" t="s" s="0">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="s" s="0">
+        <v>2100</v>
+      </c>
+      <c r="B1457" t="s" s="0">
+        <v>1396</v>
+      </c>
+      <c r="C1457" t="s" s="0">
+        <v>2038</v>
+      </c>
+      <c r="D1457" t="s" s="0">
+        <v>1535</v>
+      </c>
+      <c r="E1457" t="s" s="0">
+        <v>1854</v>
+      </c>
+      <c r="F1457" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="G1457" t="s" s="0">
+        <v>1700</v>
+      </c>
+      <c r="H1457" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="I1457" t="s" s="0">
+        <v>2304</v>
+      </c>
+      <c r="J1457" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="K1457" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L1457" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="M1457" t="s" s="0">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B1458" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C1458" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="D1458" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="E1458" t="s" s="0">
+        <v>2137</v>
+      </c>
+      <c r="F1458" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="G1458" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="H1458" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="I1458" t="s" s="0">
+        <v>2075</v>
+      </c>
+      <c r="J1458" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="K1458" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="L1458" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="M1458" t="s" s="0">
+        <v>3517</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Metamask/phrase.xlsx
+++ b/Excel/Metamask/phrase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Word1</t>
   </si>
@@ -290,6 +290,45 @@
   </si>
   <si>
     <t>0x21191241DB922FC59DD1CC485eC32ad0d4e904D8</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>clinic</t>
+  </si>
+  <si>
+    <t>gown</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>0x319eD8b93aF9604305380cbA88Af7df40Ce679D0</t>
   </si>
 </sst>
 </file>
@@ -648,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -943,6 +982,47 @@
         <v>89</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Metamask/phrase.xlsx
+++ b/Excel/Metamask/phrase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Word1</t>
   </si>
@@ -329,6 +329,45 @@
   </si>
   <si>
     <t>0x319eD8b93aF9604305380cbA88Af7df40Ce679D0</t>
+  </si>
+  <si>
+    <t>duty</t>
+  </si>
+  <si>
+    <t>furnace</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>rigid</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>salute</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>0x78C15E54615aB5634eEaA02a1f99e051dA75fa43</t>
   </si>
 </sst>
 </file>
@@ -687,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -1023,6 +1062,47 @@
         <v>102</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
